--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1б-700 (Кристалл фирм.2  0,7 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1б-700 (Кристалл фирм.2  0,7 л.).xlsx
@@ -146,13 +146,13 @@
     <t>Формокомплект бутылки «Кристалл 0,7»  тип XXI-B-28-2.1в-700 (владелец ООО "ВЕДАТРАНЗИТ" дог. №25/04 от 25.04.2014)</t>
   </si>
   <si>
-    <t>XXI-B-28-2.1в-700</t>
-  </si>
-  <si>
     <t>Дата поставки  30.01.19 (c остаточным ресурсом 87 %)</t>
   </si>
   <si>
     <t>Начальник УРФ                                            Е.А. Козинов</t>
+  </si>
+  <si>
+    <t>XXI-B-28-2.1б-700</t>
   </si>
 </sst>
 </file>
@@ -843,18 +843,118 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -862,6 +962,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -871,119 +974,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H29"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1314,29 +1314,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="A2" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
       <c r="F2" s="23"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1395,124 +1395,124 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="75">
+      <c r="A5" s="63">
         <v>1</v>
       </c>
       <c r="B5" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="76" t="s">
-        <v>40</v>
+      <c r="C5" s="64" t="s">
+        <v>42</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34">
         <v>24</v>
       </c>
-      <c r="F5" s="77"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="34">
         <f>E5-F5</f>
         <v>24</v>
       </c>
       <c r="H5" s="36"/>
-      <c r="I5" s="78"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
-      <c r="L5" s="79"/>
+      <c r="L5" s="67"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="80">
+      <c r="A6" s="68">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="81" t="s">
-        <v>40</v>
+      <c r="C6" s="69" t="s">
+        <v>42</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="8">
         <v>24</v>
       </c>
-      <c r="F6" s="82"/>
+      <c r="F6" s="70"/>
       <c r="G6" s="8">
         <f t="shared" ref="G6:G15" si="0">E6-F6</f>
         <v>24</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="83"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
-      <c r="L6" s="84"/>
+      <c r="L6" s="72"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="80">
+      <c r="A7" s="68">
         <f t="shared" ref="A7:A15" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="81" t="s">
-        <v>40</v>
+      <c r="C7" s="69" t="s">
+        <v>42</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="8">
         <v>32</v>
       </c>
-      <c r="F7" s="82"/>
+      <c r="F7" s="70"/>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="83"/>
+      <c r="I7" s="71"/>
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
-      <c r="L7" s="84"/>
+      <c r="L7" s="72"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="80">
+      <c r="A8" s="68">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="81" t="s">
-        <v>40</v>
+      <c r="C8" s="69" t="s">
+        <v>42</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="8">
         <v>32</v>
       </c>
-      <c r="F8" s="82"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="83"/>
+      <c r="I8" s="71"/>
       <c r="J8" s="8"/>
       <c r="K8" s="42"/>
-      <c r="L8" s="84"/>
+      <c r="L8" s="72"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="80">
+      <c r="A9" s="68">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="81" t="s">
-        <v>40</v>
+      <c r="C9" s="69" t="s">
+        <v>42</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="8">
         <v>20</v>
       </c>
-      <c r="F9" s="82"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1521,50 +1521,50 @@
       <c r="I9" s="35"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="84"/>
+      <c r="L9" s="72"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="80">
+      <c r="A10" s="68">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="81" t="s">
-        <v>40</v>
+      <c r="C10" s="69" t="s">
+        <v>42</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="8">
         <v>24</v>
       </c>
-      <c r="F10" s="82"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="H10" s="38"/>
-      <c r="I10" s="83"/>
+      <c r="I10" s="71"/>
       <c r="J10" s="8"/>
       <c r="K10" s="42"/>
-      <c r="L10" s="84"/>
+      <c r="L10" s="72"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="80">
+      <c r="A11" s="68">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="81" t="s">
-        <v>40</v>
+      <c r="C11" s="69" t="s">
+        <v>42</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="8">
         <v>57</v>
       </c>
-      <c r="F11" s="85"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1573,25 +1573,25 @@
       <c r="I11" s="35"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="84"/>
+      <c r="L11" s="72"/>
       <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="80">
+      <c r="A12" s="68">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="81" t="s">
-        <v>40</v>
+      <c r="C12" s="69" t="s">
+        <v>42</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="8">
         <v>21</v>
       </c>
-      <c r="F12" s="86"/>
+      <c r="F12" s="74"/>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1600,25 +1600,25 @@
       <c r="I12" s="35"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="84"/>
+      <c r="L12" s="72"/>
       <c r="M12" s="21"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="80">
+      <c r="A13" s="68">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="81" t="s">
-        <v>40</v>
+      <c r="C13" s="69" t="s">
+        <v>42</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="8">
         <v>8</v>
       </c>
-      <c r="F13" s="82"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1629,24 +1629,24 @@
       <c r="I13" s="35"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="84"/>
+      <c r="L13" s="72"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="80">
+      <c r="A14" s="68">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="81" t="s">
-        <v>40</v>
+      <c r="C14" s="69" t="s">
+        <v>42</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="8">
         <v>50</v>
       </c>
-      <c r="F14" s="85">
+      <c r="F14" s="73">
         <v>7</v>
       </c>
       <c r="G14" s="8">
@@ -1657,24 +1657,24 @@
       <c r="I14" s="35"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="84"/>
+      <c r="L14" s="72"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="80">
+      <c r="A15" s="68">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="81" t="s">
-        <v>40</v>
+      <c r="C15" s="69" t="s">
+        <v>42</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="10">
         <v>60</v>
       </c>
-      <c r="F15" s="82"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1683,7 +1683,7 @@
       <c r="I15" s="35"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="84"/>
+      <c r="L15" s="72"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="51"/>
@@ -1750,18 +1750,18 @@
         <f>E5*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B19" s="87"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="97">
+      <c r="B19" s="75"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="85">
         <v>2180000</v>
       </c>
-      <c r="G19" s="89">
+      <c r="G19" s="77">
         <f t="shared" ref="G19:G24" si="2">F19/A$19</f>
         <v>0.12976190476190477</v>
       </c>
-      <c r="H19" s="108">
+      <c r="H19" s="96">
         <f>A19-F19</f>
         <v>14620000</v>
       </c>
@@ -1774,27 +1774,27 @@
       <c r="L19" s="47"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A20" s="80"/>
-      <c r="B20" s="90">
+      <c r="A20" s="68"/>
+      <c r="B20" s="78">
         <v>43514</v>
       </c>
-      <c r="C20" s="90">
+      <c r="C20" s="78">
         <v>43518</v>
       </c>
-      <c r="D20" s="90">
+      <c r="D20" s="78">
         <v>43520</v>
       </c>
-      <c r="E20" s="104">
+      <c r="E20" s="92">
         <v>476718</v>
       </c>
-      <c r="F20" s="98">
+      <c r="F20" s="86">
         <v>517528</v>
       </c>
-      <c r="G20" s="89">
+      <c r="G20" s="77">
         <f t="shared" si="2"/>
         <v>3.0805238095238094E-2</v>
       </c>
-      <c r="H20" s="109">
+      <c r="H20" s="97">
         <f t="shared" ref="H20:I24" si="3">H19-F20</f>
         <v>14102472</v>
       </c>
@@ -1808,26 +1808,26 @@
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
       <c r="A21" s="12"/>
-      <c r="B21" s="92">
+      <c r="B21" s="80">
         <v>43579</v>
       </c>
-      <c r="C21" s="92">
+      <c r="C21" s="80">
         <v>43585</v>
       </c>
-      <c r="D21" s="92">
+      <c r="D21" s="80">
         <v>43586</v>
       </c>
-      <c r="E21" s="105">
+      <c r="E21" s="93">
         <v>935262</v>
       </c>
-      <c r="F21" s="91">
+      <c r="F21" s="79">
         <v>1003724</v>
       </c>
-      <c r="G21" s="89">
+      <c r="G21" s="77">
         <f t="shared" si="2"/>
         <v>5.9745476190476189E-2</v>
       </c>
-      <c r="H21" s="109">
+      <c r="H21" s="97">
         <f t="shared" si="3"/>
         <v>13098748</v>
       </c>
@@ -1841,26 +1841,26 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="12"/>
-      <c r="B22" s="92">
+      <c r="B22" s="80">
         <v>43586</v>
       </c>
-      <c r="C22" s="92">
+      <c r="C22" s="80">
         <v>43588</v>
       </c>
-      <c r="D22" s="92">
+      <c r="D22" s="80">
         <v>43595</v>
       </c>
-      <c r="E22" s="106">
+      <c r="E22" s="94">
         <v>279600</v>
       </c>
-      <c r="F22" s="82">
+      <c r="F22" s="70">
         <v>300497</v>
       </c>
-      <c r="G22" s="89">
+      <c r="G22" s="77">
         <f t="shared" si="2"/>
         <v>1.7886726190476189E-2</v>
       </c>
-      <c r="H22" s="109">
+      <c r="H22" s="97">
         <f t="shared" si="3"/>
         <v>12798251</v>
       </c>
@@ -1874,26 +1874,26 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="12"/>
-      <c r="B23" s="92">
+      <c r="B23" s="80">
         <v>43627</v>
       </c>
-      <c r="C23" s="92">
+      <c r="C23" s="80">
         <v>43632</v>
       </c>
-      <c r="D23" s="92">
+      <c r="D23" s="80">
         <v>43636</v>
       </c>
-      <c r="E23" s="105">
+      <c r="E23" s="93">
         <v>759114</v>
       </c>
-      <c r="F23" s="91">
+      <c r="F23" s="79">
         <v>812056</v>
       </c>
-      <c r="G23" s="93">
+      <c r="G23" s="81">
         <f t="shared" si="2"/>
         <v>4.8336666666666667E-2</v>
       </c>
-      <c r="H23" s="109">
+      <c r="H23" s="97">
         <f t="shared" si="3"/>
         <v>11986195</v>
       </c>
@@ -1907,24 +1907,24 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="12"/>
-      <c r="B24" s="92">
+      <c r="B24" s="80">
         <v>43660</v>
       </c>
-      <c r="C24" s="92">
+      <c r="C24" s="80">
         <v>43670</v>
       </c>
-      <c r="D24" s="92"/>
-      <c r="E24" s="105">
+      <c r="D24" s="80"/>
+      <c r="E24" s="93">
         <v>1430154</v>
       </c>
-      <c r="F24" s="91">
+      <c r="F24" s="79">
         <v>1522793</v>
       </c>
-      <c r="G24" s="93">
+      <c r="G24" s="81">
         <f t="shared" si="2"/>
         <v>9.0642440476190481E-2</v>
       </c>
-      <c r="H24" s="109">
+      <c r="H24" s="97">
         <f t="shared" si="3"/>
         <v>10463402</v>
       </c>
@@ -1938,13 +1938,13 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="12"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="109"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="97"/>
       <c r="I25" s="20"/>
       <c r="J25" s="55"/>
       <c r="K25" s="55"/>
@@ -1952,13 +1952,13 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="12"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="109"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="97"/>
       <c r="I26" s="20"/>
       <c r="J26" s="55"/>
       <c r="K26" s="55"/>
@@ -1966,42 +1966,42 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="12"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="99"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="87"/>
       <c r="J27" s="55"/>
       <c r="K27" s="55"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="12"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="99"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="87"/>
       <c r="J28" s="55"/>
       <c r="K28" s="55"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="13.8" thickBot="1">
       <c r="A29" s="13"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="102"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="90"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2050,12 +2050,12 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2064,10 +2064,10 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="65"/>
+      <c r="B35" s="110"/>
       <c r="C35" s="9" t="s">
         <v>17</v>
       </c>
@@ -2082,11 +2082,11 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="63">
+      <c r="A36" s="108">
         <f>A19-F30</f>
         <v>10463402</v>
       </c>
-      <c r="B36" s="64"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="59">
         <f>1-G30</f>
         <v>0.62282154761904773</v>
@@ -2097,14 +2097,14 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
+      <c r="G36" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="105"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1"/>
@@ -2150,8 +2150,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="43"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="62"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="107"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="44"/>
@@ -2245,9 +2245,9 @@
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="1"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="70"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="103"/>
       <c r="E50" s="49"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2264,8 +2264,8 @@
       <c r="F51" s="43"/>
       <c r="G51" s="43"/>
       <c r="H51" s="43"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="62"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="107"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="44"/>
@@ -2276,8 +2276,8 @@
       <c r="F52" s="46"/>
       <c r="G52" s="46"/>
       <c r="H52" s="45"/>
-      <c r="I52" s="66"/>
-      <c r="J52" s="66"/>
+      <c r="I52" s="101"/>
+      <c r="J52" s="101"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="44"/>
@@ -2288,8 +2288,8 @@
       <c r="F53" s="47"/>
       <c r="G53" s="47"/>
       <c r="H53" s="47"/>
-      <c r="I53" s="66"/>
-      <c r="J53" s="66"/>
+      <c r="I53" s="101"/>
+      <c r="J53" s="101"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
@@ -2302,24 +2302,18 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="61"/>
-      <c r="C59" s="62"/>
+      <c r="B59" s="106"/>
+      <c r="C59" s="107"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="61"/>
-      <c r="C66" s="62"/>
+      <c r="B66" s="106"/>
+      <c r="C66" s="107"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G36:L36"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2327,6 +2321,12 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G36:L36"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1б-700 (Кристалл фирм.2  0,7 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1б-700 (Кристалл фирм.2  0,7 л.).xlsx
@@ -957,14 +957,25 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -972,17 +983,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H25" sqref="H25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1314,29 +1314,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="23"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1758,7 +1758,7 @@
         <v>2180000</v>
       </c>
       <c r="G19" s="77">
-        <f t="shared" ref="G19:G24" si="2">F19/A$19</f>
+        <f t="shared" ref="G19:G25" si="2">F19/A$19</f>
         <v>0.12976190476190477</v>
       </c>
       <c r="H19" s="96">
@@ -1938,14 +1938,33 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="12"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="20"/>
+      <c r="B25" s="80">
+        <v>43720</v>
+      </c>
+      <c r="C25" s="80">
+        <v>43725</v>
+      </c>
+      <c r="D25" s="80">
+        <v>43727</v>
+      </c>
+      <c r="E25" s="93">
+        <v>767502</v>
+      </c>
+      <c r="F25" s="79">
+        <v>825840</v>
+      </c>
+      <c r="G25" s="81">
+        <f t="shared" si="2"/>
+        <v>4.9157142857142858E-2</v>
+      </c>
+      <c r="H25" s="97">
+        <f t="shared" ref="H25" si="4">H24-F25</f>
+        <v>9637562</v>
+      </c>
+      <c r="I25" s="60">
+        <f t="shared" ref="I25" si="5">I24-G25</f>
+        <v>0.57366440476190472</v>
+      </c>
       <c r="J25" s="55"/>
       <c r="K25" s="55"/>
       <c r="L25" s="1"/>
@@ -2015,23 +2034,23 @@
       <c r="D30" s="16"/>
       <c r="E30" s="40">
         <f>SUM(E19:E29)</f>
-        <v>3880848</v>
+        <v>4648350</v>
       </c>
       <c r="F30" s="39">
         <f>SUM(F19:F29)</f>
-        <v>6336598</v>
+        <v>7162438</v>
       </c>
       <c r="G30" s="19">
         <f>SUM(G19:G29)</f>
-        <v>0.37717845238095232</v>
+        <v>0.42633559523809517</v>
       </c>
       <c r="H30" s="17">
         <f>A19-F30</f>
-        <v>10463402</v>
+        <v>9637562</v>
       </c>
       <c r="I30" s="22">
         <f>1-G30</f>
-        <v>0.62282154761904773</v>
+        <v>0.57366440476190483</v>
       </c>
       <c r="J30" s="57"/>
       <c r="K30" s="57"/>
@@ -2050,12 +2069,12 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A34" s="100" t="s">
+      <c r="A34" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="100"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2064,10 +2083,10 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="110"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="9" t="s">
         <v>17</v>
       </c>
@@ -2082,29 +2101,29 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="108">
+      <c r="A36" s="101">
         <f>A19-F30</f>
-        <v>10463402</v>
-      </c>
-      <c r="B36" s="109"/>
+        <v>9637562</v>
+      </c>
+      <c r="B36" s="102"/>
       <c r="C36" s="59">
         <f>1-G30</f>
-        <v>0.62282154761904773</v>
+        <v>0.57366440476190483</v>
       </c>
       <c r="D36" s="18">
         <f>(C36/0.8)*100</f>
-        <v>77.852693452380962</v>
+        <v>71.708050595238106</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="105" t="s">
+      <c r="G36" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="110"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1"/>
@@ -2150,8 +2169,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="43"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="107"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="100"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="44"/>
@@ -2245,9 +2264,9 @@
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="1"/>
-      <c r="B50" s="102"/>
-      <c r="C50" s="102"/>
-      <c r="D50" s="103"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="108"/>
       <c r="E50" s="49"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2264,8 +2283,8 @@
       <c r="F51" s="43"/>
       <c r="G51" s="43"/>
       <c r="H51" s="43"/>
-      <c r="I51" s="106"/>
-      <c r="J51" s="107"/>
+      <c r="I51" s="99"/>
+      <c r="J51" s="100"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="44"/>
@@ -2276,8 +2295,8 @@
       <c r="F52" s="46"/>
       <c r="G52" s="46"/>
       <c r="H52" s="45"/>
-      <c r="I52" s="101"/>
-      <c r="J52" s="101"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="104"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="44"/>
@@ -2288,8 +2307,8 @@
       <c r="F53" s="47"/>
       <c r="G53" s="47"/>
       <c r="H53" s="47"/>
-      <c r="I53" s="101"/>
-      <c r="J53" s="101"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
@@ -2302,18 +2321,24 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="106"/>
-      <c r="C59" s="107"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="100"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="106"/>
-      <c r="C66" s="107"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="100"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G36:L36"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2321,12 +2346,6 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G36:L36"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1б-700 (Кристалл фирм.2  0,7 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1б-700 (Кристалл фирм.2  0,7 л.).xlsx
@@ -149,10 +149,10 @@
     <t>Дата поставки  30.01.19 (c остаточным ресурсом 87 %)</t>
   </si>
   <si>
-    <t>Начальник УРФ                                            Е.А. Козинов</t>
-  </si>
-  <si>
     <t>XXI-B-28-2.1б-700</t>
+  </si>
+  <si>
+    <t>Начальник УРФ                                            А.Д. Гавриленко</t>
   </si>
 </sst>
 </file>
@@ -957,32 +957,30 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1293,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:I25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1314,29 +1312,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
       <c r="F2" s="23"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1402,7 +1400,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34">
@@ -1428,7 +1426,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="8">
@@ -1454,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="8">
@@ -1480,7 +1478,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="8">
@@ -1506,7 +1504,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="8">
@@ -1532,7 +1530,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="8">
@@ -1558,7 +1556,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="8">
@@ -1585,7 +1583,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="8">
@@ -1612,7 +1610,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="8">
@@ -1640,7 +1638,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="8">
@@ -1668,7 +1666,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="10">
@@ -2056,7 +2054,7 @@
       <c r="K30" s="57"/>
       <c r="L30" s="57"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:11">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2068,13 +2066,13 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A34" s="106" t="s">
+    <row r="34" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A34" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2082,11 +2080,11 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="103" t="s">
+    <row r="35" spans="1:11">
+      <c r="A35" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="103"/>
+      <c r="B35" s="110"/>
       <c r="C35" s="9" t="s">
         <v>17</v>
       </c>
@@ -2100,12 +2098,12 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="101">
+    <row r="36" spans="1:11">
+      <c r="A36" s="108">
         <f>A19-F30</f>
         <v>9637562</v>
       </c>
-      <c r="B36" s="102"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="59">
         <f>1-G30</f>
         <v>0.57366440476190483</v>
@@ -2114,18 +2112,16 @@
         <f>(C36/0.8)*100</f>
         <v>71.708050595238106</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="H36" s="110"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="110"/>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="E36" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2133,7 +2129,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:11">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2148,7 +2144,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.6">
+    <row r="39" spans="1:11" ht="15.6">
       <c r="A39" s="1"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2160,7 +2156,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:11">
       <c r="A40" s="43"/>
       <c r="B40" s="43"/>
       <c r="C40" s="43"/>
@@ -2169,10 +2165,10 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="43"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="100"/>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="I40" s="106"/>
+      <c r="J40" s="107"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="44"/>
       <c r="B41" s="45"/>
       <c r="C41" s="45"/>
@@ -2182,7 +2178,7 @@
       <c r="G41" s="46"/>
       <c r="H41" s="45"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:11">
       <c r="A42" s="44"/>
       <c r="B42" s="45"/>
       <c r="C42" s="45"/>
@@ -2192,7 +2188,7 @@
       <c r="G42" s="46"/>
       <c r="H42" s="45"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:11">
       <c r="A43" s="44"/>
       <c r="B43" s="45"/>
       <c r="C43" s="45"/>
@@ -2202,7 +2198,7 @@
       <c r="G43" s="46"/>
       <c r="H43" s="45"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:11">
       <c r="A44" s="44"/>
       <c r="B44" s="45"/>
       <c r="C44" s="45"/>
@@ -2212,7 +2208,7 @@
       <c r="G44" s="46"/>
       <c r="H44" s="45"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:11">
       <c r="A45" s="44"/>
       <c r="B45" s="45"/>
       <c r="C45" s="45"/>
@@ -2222,7 +2218,7 @@
       <c r="G45" s="46"/>
       <c r="H45" s="45"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:11">
       <c r="A46" s="44"/>
       <c r="B46" s="45"/>
       <c r="C46" s="47"/>
@@ -2232,7 +2228,7 @@
       <c r="G46" s="47"/>
       <c r="H46" s="47"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:11">
       <c r="A47" s="44"/>
       <c r="B47" s="45"/>
       <c r="C47" s="45"/>
@@ -2242,7 +2238,7 @@
       <c r="G47" s="46"/>
       <c r="H47" s="45"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:11">
       <c r="A48" s="44"/>
       <c r="B48" s="45"/>
       <c r="C48" s="45"/>
@@ -2264,9 +2260,9 @@
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="1"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="108"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="104"/>
       <c r="E50" s="49"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2283,8 +2279,8 @@
       <c r="F51" s="43"/>
       <c r="G51" s="43"/>
       <c r="H51" s="43"/>
-      <c r="I51" s="99"/>
-      <c r="J51" s="100"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="107"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="44"/>
@@ -2295,8 +2291,8 @@
       <c r="F52" s="46"/>
       <c r="G52" s="46"/>
       <c r="H52" s="45"/>
-      <c r="I52" s="104"/>
-      <c r="J52" s="104"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="102"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="44"/>
@@ -2307,8 +2303,8 @@
       <c r="F53" s="47"/>
       <c r="G53" s="47"/>
       <c r="H53" s="47"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="104"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
@@ -2321,24 +2317,18 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="99"/>
-      <c r="C59" s="100"/>
+      <c r="B59" s="106"/>
+      <c r="C59" s="107"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="99"/>
-      <c r="C66" s="100"/>
+      <c r="B66" s="106"/>
+      <c r="C66" s="107"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
-  <mergeCells count="13">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G36:L36"/>
+  <mergeCells count="12">
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2346,6 +2336,11 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1б-700 (Кристалл фирм.2  0,7 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1б-700 (Кристалл фирм.2  0,7 л.).xlsx
@@ -793,8 +793,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -982,6 +980,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1289,10 +1293,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1312,29 +1319,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
       <c r="F2" s="23"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1393,124 +1400,124 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="63">
+      <c r="A5" s="61">
         <v>1</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="62" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34">
         <v>24</v>
       </c>
-      <c r="F5" s="65"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="34">
         <f>E5-F5</f>
         <v>24</v>
       </c>
       <c r="H5" s="36"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="67"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="65"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="68">
+      <c r="A6" s="66">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="67" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="8">
         <v>24</v>
       </c>
-      <c r="F6" s="70"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="8">
         <f t="shared" ref="G6:G15" si="0">E6-F6</f>
         <v>24</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="72"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="70"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="68">
+      <c r="A7" s="66">
         <f t="shared" ref="A7:A15" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="67" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="8">
         <v>32</v>
       </c>
-      <c r="F7" s="70"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="72"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="70"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="68">
+      <c r="A8" s="66">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="67" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="8">
         <v>32</v>
       </c>
-      <c r="F8" s="70"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="71"/>
+      <c r="I8" s="69"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="72"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="70"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="68">
+      <c r="A9" s="66">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="67" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="8">
         <v>20</v>
       </c>
-      <c r="F9" s="70"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1519,50 +1526,50 @@
       <c r="I9" s="35"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="72"/>
+      <c r="L9" s="70"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="68">
+      <c r="A10" s="66">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="67" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="8">
         <v>24</v>
       </c>
-      <c r="F10" s="70"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="H10" s="38"/>
-      <c r="I10" s="71"/>
+      <c r="I10" s="69"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="72"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="70"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="68">
+      <c r="A11" s="66">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="67" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="8">
         <v>57</v>
       </c>
-      <c r="F11" s="73"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1571,25 +1578,25 @@
       <c r="I11" s="35"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="72"/>
+      <c r="L11" s="70"/>
       <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="68">
+      <c r="A12" s="66">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="67" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="8">
         <v>21</v>
       </c>
-      <c r="F12" s="74"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1598,25 +1605,25 @@
       <c r="I12" s="35"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="72"/>
+      <c r="L12" s="70"/>
       <c r="M12" s="21"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="68">
+      <c r="A13" s="66">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="67" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="8">
         <v>8</v>
       </c>
-      <c r="F13" s="70"/>
+      <c r="F13" s="68"/>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1627,24 +1634,24 @@
       <c r="I13" s="35"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="72"/>
+      <c r="L13" s="70"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="68">
+      <c r="A14" s="66">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="67" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="8">
         <v>50</v>
       </c>
-      <c r="F14" s="73">
+      <c r="F14" s="71">
         <v>7</v>
       </c>
       <c r="G14" s="8">
@@ -1655,24 +1662,24 @@
       <c r="I14" s="35"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="72"/>
+      <c r="L14" s="70"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="68">
+      <c r="A15" s="66">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="67" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="10">
         <v>60</v>
       </c>
-      <c r="F15" s="70"/>
+      <c r="F15" s="68"/>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1681,11 +1688,11 @@
       <c r="I15" s="35"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="72"/>
+      <c r="L15" s="70"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="51"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1697,7 +1704,7 @@
     </row>
     <row r="17" spans="1:12" ht="16.2" thickBot="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="50" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="11"/>
@@ -1707,9 +1714,9 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
     </row>
     <row r="18" spans="1:12" ht="66.599999999999994" thickBot="1">
       <c r="A18" s="29" t="s">
@@ -1739,64 +1746,64 @@
       <c r="I18" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="58">
+      <c r="A19" s="56">
         <f>E5*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="85">
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="83">
         <v>2180000</v>
       </c>
-      <c r="G19" s="77">
+      <c r="G19" s="75">
         <f t="shared" ref="G19:G25" si="2">F19/A$19</f>
         <v>0.12976190476190477</v>
       </c>
-      <c r="H19" s="96">
+      <c r="H19" s="94">
         <f>A19-F19</f>
         <v>14620000</v>
       </c>
-      <c r="I19" s="60">
+      <c r="I19" s="58">
         <f>1-G19</f>
         <v>0.87023809523809526</v>
       </c>
-      <c r="J19" s="55"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A20" s="68"/>
-      <c r="B20" s="78">
+      <c r="A20" s="66"/>
+      <c r="B20" s="76">
         <v>43514</v>
       </c>
-      <c r="C20" s="78">
+      <c r="C20" s="76">
         <v>43518</v>
       </c>
-      <c r="D20" s="78">
+      <c r="D20" s="76">
         <v>43520</v>
       </c>
-      <c r="E20" s="92">
+      <c r="E20" s="90">
         <v>476718</v>
       </c>
-      <c r="F20" s="86">
+      <c r="F20" s="84">
         <v>517528</v>
       </c>
-      <c r="G20" s="77">
+      <c r="G20" s="75">
         <f t="shared" si="2"/>
         <v>3.0805238095238094E-2</v>
       </c>
-      <c r="H20" s="97">
+      <c r="H20" s="95">
         <f t="shared" ref="H20:I24" si="3">H19-F20</f>
         <v>14102472</v>
       </c>
-      <c r="I20" s="60">
+      <c r="I20" s="58">
         <f t="shared" si="3"/>
         <v>0.8394328571428572</v>
       </c>
@@ -1806,219 +1813,219 @@
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
       <c r="A21" s="12"/>
-      <c r="B21" s="80">
+      <c r="B21" s="78">
         <v>43579</v>
       </c>
-      <c r="C21" s="80">
+      <c r="C21" s="78">
         <v>43585</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="78">
         <v>43586</v>
       </c>
-      <c r="E21" s="93">
+      <c r="E21" s="91">
         <v>935262</v>
       </c>
-      <c r="F21" s="79">
+      <c r="F21" s="77">
         <v>1003724</v>
       </c>
-      <c r="G21" s="77">
+      <c r="G21" s="75">
         <f t="shared" si="2"/>
         <v>5.9745476190476189E-2</v>
       </c>
-      <c r="H21" s="97">
+      <c r="H21" s="95">
         <f t="shared" si="3"/>
         <v>13098748</v>
       </c>
-      <c r="I21" s="60">
+      <c r="I21" s="58">
         <f t="shared" si="3"/>
         <v>0.77968738095238099</v>
       </c>
-      <c r="J21" s="55"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="12"/>
-      <c r="B22" s="80">
+      <c r="B22" s="78">
         <v>43586</v>
       </c>
-      <c r="C22" s="80">
+      <c r="C22" s="78">
         <v>43588</v>
       </c>
-      <c r="D22" s="80">
+      <c r="D22" s="78">
         <v>43595</v>
       </c>
-      <c r="E22" s="94">
+      <c r="E22" s="92">
         <v>279600</v>
       </c>
-      <c r="F22" s="70">
+      <c r="F22" s="68">
         <v>300497</v>
       </c>
-      <c r="G22" s="77">
+      <c r="G22" s="75">
         <f t="shared" si="2"/>
         <v>1.7886726190476189E-2</v>
       </c>
-      <c r="H22" s="97">
+      <c r="H22" s="95">
         <f t="shared" si="3"/>
         <v>12798251</v>
       </c>
-      <c r="I22" s="60">
+      <c r="I22" s="58">
         <f t="shared" si="3"/>
         <v>0.76180065476190484</v>
       </c>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="12"/>
-      <c r="B23" s="80">
+      <c r="B23" s="78">
         <v>43627</v>
       </c>
-      <c r="C23" s="80">
+      <c r="C23" s="78">
         <v>43632</v>
       </c>
-      <c r="D23" s="80">
+      <c r="D23" s="78">
         <v>43636</v>
       </c>
-      <c r="E23" s="93">
+      <c r="E23" s="91">
         <v>759114</v>
       </c>
-      <c r="F23" s="79">
+      <c r="F23" s="77">
         <v>812056</v>
       </c>
-      <c r="G23" s="81">
+      <c r="G23" s="79">
         <f t="shared" si="2"/>
         <v>4.8336666666666667E-2</v>
       </c>
-      <c r="H23" s="97">
+      <c r="H23" s="95">
         <f t="shared" si="3"/>
         <v>11986195</v>
       </c>
-      <c r="I23" s="60">
+      <c r="I23" s="58">
         <f t="shared" si="3"/>
         <v>0.71346398809523814</v>
       </c>
-      <c r="J23" s="55"/>
-      <c r="K23" s="56"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="54"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="12"/>
-      <c r="B24" s="80">
+      <c r="B24" s="78">
         <v>43660</v>
       </c>
-      <c r="C24" s="80">
+      <c r="C24" s="78">
         <v>43670</v>
       </c>
-      <c r="D24" s="80"/>
-      <c r="E24" s="93">
+      <c r="D24" s="78"/>
+      <c r="E24" s="91">
         <v>1430154</v>
       </c>
-      <c r="F24" s="79">
+      <c r="F24" s="77">
         <v>1522793</v>
       </c>
-      <c r="G24" s="81">
+      <c r="G24" s="79">
         <f t="shared" si="2"/>
         <v>9.0642440476190481E-2</v>
       </c>
-      <c r="H24" s="97">
+      <c r="H24" s="95">
         <f t="shared" si="3"/>
         <v>10463402</v>
       </c>
-      <c r="I24" s="60">
+      <c r="I24" s="58">
         <f t="shared" si="3"/>
         <v>0.62282154761904762</v>
       </c>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="12"/>
-      <c r="B25" s="80">
+      <c r="B25" s="78">
         <v>43720</v>
       </c>
-      <c r="C25" s="80">
+      <c r="C25" s="78">
         <v>43725</v>
       </c>
-      <c r="D25" s="80">
+      <c r="D25" s="78">
         <v>43727</v>
       </c>
-      <c r="E25" s="93">
-        <v>767502</v>
-      </c>
-      <c r="F25" s="79">
+      <c r="E25" s="91">
+        <v>777288</v>
+      </c>
+      <c r="F25" s="77">
         <v>825840</v>
       </c>
-      <c r="G25" s="81">
+      <c r="G25" s="79">
         <f t="shared" si="2"/>
         <v>4.9157142857142858E-2</v>
       </c>
-      <c r="H25" s="97">
+      <c r="H25" s="95">
         <f t="shared" ref="H25" si="4">H24-F25</f>
         <v>9637562</v>
       </c>
-      <c r="I25" s="60">
+      <c r="I25" s="58">
         <f t="shared" ref="I25" si="5">I24-G25</f>
         <v>0.57366440476190472</v>
       </c>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="12"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="97"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="95"/>
       <c r="I26" s="20"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="12"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="12"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="13.8" thickBot="1">
       <c r="A29" s="13"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="90"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="88"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2030,11 +2037,11 @@
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="40">
+      <c r="E30" s="109">
         <f>SUM(E19:E29)</f>
-        <v>4648350</v>
-      </c>
-      <c r="F30" s="39">
+        <v>4658136</v>
+      </c>
+      <c r="F30" s="110">
         <f>SUM(F19:F29)</f>
         <v>7162438</v>
       </c>
@@ -2050,9 +2057,9 @@
         <f>1-G30</f>
         <v>0.57366440476190483</v>
       </c>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1"/>
@@ -2067,12 +2074,12 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A34" s="101" t="s">
+      <c r="A34" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2081,10 +2088,10 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="110"/>
+      <c r="B35" s="108"/>
       <c r="C35" s="9" t="s">
         <v>17</v>
       </c>
@@ -2099,12 +2106,12 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="108">
+      <c r="A36" s="106">
         <f>A19-F30</f>
         <v>9637562</v>
       </c>
-      <c r="B36" s="109"/>
-      <c r="C36" s="59">
+      <c r="B36" s="107"/>
+      <c r="C36" s="57">
         <f>1-G30</f>
         <v>0.57366440476190483</v>
       </c>
@@ -2112,14 +2119,14 @@
         <f>(C36/0.8)*100</f>
         <v>71.708050595238106</v>
       </c>
-      <c r="E36" s="99" t="s">
+      <c r="E36" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="99"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="97"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1"/>
@@ -2157,113 +2164,113 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="107"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="105"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="44"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="45"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="43"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="44"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="45"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="43"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="44"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="45"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="43"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="44"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="45"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="43"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="44"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="45"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="43"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="44"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="44"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="45"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="43"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="44"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="45"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="43"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="44"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="45"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="43"/>
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="1"/>
-      <c r="B50" s="103"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="104"/>
-      <c r="E50" s="49"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2271,40 +2278,40 @@
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="106"/>
-      <c r="J51" s="107"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="105"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="44"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="102"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="100"/>
+      <c r="J52" s="100"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="44"/>
+      <c r="A53" s="42"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="102"/>
-      <c r="J53" s="102"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="100"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
@@ -2317,12 +2324,12 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="106"/>
-      <c r="C59" s="107"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="105"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="106"/>
-      <c r="C66" s="107"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="105"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
@@ -2345,7 +2352,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="36" max="12" man="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1б-700 (Кристалл фирм.2  0,7 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1б-700 (Кристалл фирм.2  0,7 л.).xlsx
@@ -699,7 +699,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -738,9 +738,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -956,36 +953,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1299,7 +1296,7 @@
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:F30"/>
+      <selection activeCell="H26" sqref="H26:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1319,34 +1316,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.2" thickBot="1">
@@ -1357,342 +1354,342 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
       <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="61">
+      <c r="A5" s="60">
         <v>1</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33">
         <v>24</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="34">
+      <c r="F5" s="62"/>
+      <c r="G5" s="33">
         <f>E5-F5</f>
         <v>24</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="65"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="64"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="66">
+      <c r="A6" s="65">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="8">
         <v>24</v>
       </c>
-      <c r="F6" s="68"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="8">
         <f t="shared" ref="G6:G15" si="0">E6-F6</f>
         <v>24</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="70"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="69"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="66">
+      <c r="A7" s="65">
         <f t="shared" ref="A7:A15" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="8">
         <v>32</v>
       </c>
-      <c r="F7" s="68"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="70"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="69"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="66">
+      <c r="A8" s="65">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="8">
         <v>32</v>
       </c>
-      <c r="F8" s="68"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="69"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="68"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="70"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="69"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="66">
+      <c r="A9" s="65">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="8">
         <v>20</v>
       </c>
-      <c r="F9" s="68"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="35"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="34"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="70"/>
+      <c r="L9" s="69"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="66">
+      <c r="A10" s="65">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="35"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="8">
         <v>24</v>
       </c>
-      <c r="F10" s="68"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="69"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="68"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="70"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="69"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="66">
+      <c r="A11" s="65">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="8">
         <v>57</v>
       </c>
-      <c r="F11" s="71"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="35"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="34"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="21"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="20"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="66">
+      <c r="A12" s="65">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="8">
         <v>21</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="71"/>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="35"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="21"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="20"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="66">
+      <c r="A13" s="65">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="8">
         <v>8</v>
       </c>
-      <c r="F13" s="68"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="35"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="70"/>
+      <c r="L13" s="69"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="66">
+      <c r="A14" s="65">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="35"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="8">
         <v>50</v>
       </c>
-      <c r="F14" s="71">
+      <c r="F14" s="70">
         <v>7</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="35"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="70"/>
+      <c r="L14" s="69"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="66">
+      <c r="A15" s="65">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="35"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="10">
         <v>60</v>
       </c>
-      <c r="F15" s="68"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="35"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="34"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="70"/>
+      <c r="L15" s="69"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="49"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1704,7 +1701,7 @@
     </row>
     <row r="17" spans="1:12" ht="16.2" thickBot="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="11"/>
@@ -1714,96 +1711,96 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
     </row>
     <row r="18" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="56">
+      <c r="A19" s="55">
         <f>E5*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="83">
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="82">
         <v>2180000</v>
       </c>
-      <c r="G19" s="75">
-        <f t="shared" ref="G19:G25" si="2">F19/A$19</f>
+      <c r="G19" s="74">
+        <f t="shared" ref="G19:G26" si="2">F19/A$19</f>
         <v>0.12976190476190477</v>
       </c>
-      <c r="H19" s="94">
+      <c r="H19" s="93">
         <f>A19-F19</f>
         <v>14620000</v>
       </c>
-      <c r="I19" s="58">
+      <c r="I19" s="57">
         <f>1-G19</f>
         <v>0.87023809523809526</v>
       </c>
-      <c r="J19" s="53"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A20" s="66"/>
-      <c r="B20" s="76">
+      <c r="A20" s="65"/>
+      <c r="B20" s="75">
         <v>43514</v>
       </c>
-      <c r="C20" s="76">
+      <c r="C20" s="75">
         <v>43518</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="75">
         <v>43520</v>
       </c>
-      <c r="E20" s="90">
+      <c r="E20" s="89">
         <v>476718</v>
       </c>
-      <c r="F20" s="84">
+      <c r="F20" s="83">
         <v>517528</v>
       </c>
-      <c r="G20" s="75">
+      <c r="G20" s="74">
         <f t="shared" si="2"/>
         <v>3.0805238095238094E-2</v>
       </c>
-      <c r="H20" s="95">
+      <c r="H20" s="94">
         <f t="shared" ref="H20:I24" si="3">H19-F20</f>
         <v>14102472</v>
       </c>
-      <c r="I20" s="58">
+      <c r="I20" s="57">
         <f t="shared" si="3"/>
         <v>0.8394328571428572</v>
       </c>
@@ -1813,219 +1810,238 @@
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
       <c r="A21" s="12"/>
-      <c r="B21" s="78">
+      <c r="B21" s="77">
         <v>43579</v>
       </c>
-      <c r="C21" s="78">
+      <c r="C21" s="77">
         <v>43585</v>
       </c>
-      <c r="D21" s="78">
+      <c r="D21" s="77">
         <v>43586</v>
       </c>
-      <c r="E21" s="91">
+      <c r="E21" s="90">
         <v>935262</v>
       </c>
-      <c r="F21" s="77">
+      <c r="F21" s="76">
         <v>1003724</v>
       </c>
-      <c r="G21" s="75">
+      <c r="G21" s="74">
         <f t="shared" si="2"/>
         <v>5.9745476190476189E-2</v>
       </c>
-      <c r="H21" s="95">
+      <c r="H21" s="94">
         <f t="shared" si="3"/>
         <v>13098748</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="57">
         <f t="shared" si="3"/>
         <v>0.77968738095238099</v>
       </c>
-      <c r="J21" s="53"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="12"/>
-      <c r="B22" s="78">
+      <c r="B22" s="77">
         <v>43586</v>
       </c>
-      <c r="C22" s="78">
+      <c r="C22" s="77">
         <v>43588</v>
       </c>
-      <c r="D22" s="78">
+      <c r="D22" s="77">
         <v>43595</v>
       </c>
-      <c r="E22" s="92">
+      <c r="E22" s="91">
         <v>279600</v>
       </c>
-      <c r="F22" s="68">
+      <c r="F22" s="67">
         <v>300497</v>
       </c>
-      <c r="G22" s="75">
+      <c r="G22" s="74">
         <f t="shared" si="2"/>
         <v>1.7886726190476189E-2</v>
       </c>
-      <c r="H22" s="95">
+      <c r="H22" s="94">
         <f t="shared" si="3"/>
         <v>12798251</v>
       </c>
-      <c r="I22" s="58">
+      <c r="I22" s="57">
         <f t="shared" si="3"/>
         <v>0.76180065476190484</v>
       </c>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="12"/>
-      <c r="B23" s="78">
+      <c r="B23" s="77">
         <v>43627</v>
       </c>
-      <c r="C23" s="78">
+      <c r="C23" s="77">
         <v>43632</v>
       </c>
-      <c r="D23" s="78">
+      <c r="D23" s="77">
         <v>43636</v>
       </c>
-      <c r="E23" s="91">
+      <c r="E23" s="90">
         <v>759114</v>
       </c>
-      <c r="F23" s="77">
+      <c r="F23" s="76">
         <v>812056</v>
       </c>
-      <c r="G23" s="79">
+      <c r="G23" s="78">
         <f t="shared" si="2"/>
         <v>4.8336666666666667E-2</v>
       </c>
-      <c r="H23" s="95">
+      <c r="H23" s="94">
         <f t="shared" si="3"/>
         <v>11986195</v>
       </c>
-      <c r="I23" s="58">
+      <c r="I23" s="57">
         <f t="shared" si="3"/>
         <v>0.71346398809523814</v>
       </c>
-      <c r="J23" s="53"/>
-      <c r="K23" s="54"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="12"/>
-      <c r="B24" s="78">
+      <c r="B24" s="77">
         <v>43660</v>
       </c>
-      <c r="C24" s="78">
+      <c r="C24" s="77">
         <v>43670</v>
       </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="91">
+      <c r="D24" s="77"/>
+      <c r="E24" s="90">
         <v>1430154</v>
       </c>
-      <c r="F24" s="77">
+      <c r="F24" s="76">
         <v>1522793</v>
       </c>
-      <c r="G24" s="79">
+      <c r="G24" s="78">
         <f t="shared" si="2"/>
         <v>9.0642440476190481E-2</v>
       </c>
-      <c r="H24" s="95">
+      <c r="H24" s="94">
         <f t="shared" si="3"/>
         <v>10463402</v>
       </c>
-      <c r="I24" s="58">
+      <c r="I24" s="57">
         <f t="shared" si="3"/>
         <v>0.62282154761904762</v>
       </c>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="12"/>
-      <c r="B25" s="78">
+      <c r="B25" s="77">
         <v>43720</v>
       </c>
-      <c r="C25" s="78">
+      <c r="C25" s="77">
         <v>43725</v>
       </c>
-      <c r="D25" s="78">
+      <c r="D25" s="77">
         <v>43727</v>
       </c>
-      <c r="E25" s="91">
+      <c r="E25" s="90">
         <v>777288</v>
       </c>
-      <c r="F25" s="77">
+      <c r="F25" s="76">
         <v>825840</v>
       </c>
-      <c r="G25" s="79">
+      <c r="G25" s="78">
         <f t="shared" si="2"/>
         <v>4.9157142857142858E-2</v>
       </c>
-      <c r="H25" s="95">
+      <c r="H25" s="94">
         <f t="shared" ref="H25" si="4">H24-F25</f>
         <v>9637562</v>
       </c>
-      <c r="I25" s="58">
+      <c r="I25" s="57">
         <f t="shared" ref="I25" si="5">I24-G25</f>
         <v>0.57366440476190472</v>
       </c>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="12"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
+      <c r="B26" s="77">
+        <v>43756</v>
+      </c>
+      <c r="C26" s="77">
+        <v>43767</v>
+      </c>
+      <c r="D26" s="77">
+        <v>43769</v>
+      </c>
+      <c r="E26" s="90">
+        <v>1662780</v>
+      </c>
+      <c r="F26" s="76">
+        <v>1724962</v>
+      </c>
+      <c r="G26" s="78">
+        <f t="shared" si="2"/>
+        <v>0.10267630952380952</v>
+      </c>
+      <c r="H26" s="94">
+        <f t="shared" ref="H26" si="6">H25-F26</f>
+        <v>7912600</v>
+      </c>
+      <c r="I26" s="57">
+        <f t="shared" ref="I26" si="7">I25-G26</f>
+        <v>0.47098809523809521</v>
+      </c>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="12"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="12"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="13.8" thickBot="1">
       <c r="A29" s="13"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="88"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="87"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2037,29 +2053,29 @@
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="109">
+      <c r="E30" s="97">
         <f>SUM(E19:E29)</f>
-        <v>4658136</v>
-      </c>
-      <c r="F30" s="110">
+        <v>6320916</v>
+      </c>
+      <c r="F30" s="98">
         <f>SUM(F19:F29)</f>
-        <v>7162438</v>
+        <v>8887400</v>
       </c>
       <c r="G30" s="19">
         <f>SUM(G19:G29)</f>
-        <v>0.42633559523809517</v>
+        <v>0.52901190476190463</v>
       </c>
       <c r="H30" s="17">
         <f>A19-F30</f>
-        <v>9637562</v>
-      </c>
-      <c r="I30" s="22">
+        <v>7912600</v>
+      </c>
+      <c r="I30" s="21">
         <f>1-G30</f>
-        <v>0.57366440476190483</v>
-      </c>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
+        <v>0.47098809523809537</v>
+      </c>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1"/>
@@ -2074,12 +2090,12 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A34" s="99" t="s">
+      <c r="A34" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="99"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2088,10 +2104,10 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="108" t="s">
+      <c r="A35" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="108"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="9" t="s">
         <v>17</v>
       </c>
@@ -2106,27 +2122,27 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="106">
+      <c r="A36" s="101">
         <f>A19-F30</f>
-        <v>9637562</v>
-      </c>
-      <c r="B36" s="107"/>
-      <c r="C36" s="57">
+        <v>7912600</v>
+      </c>
+      <c r="B36" s="102"/>
+      <c r="C36" s="56">
         <f>1-G30</f>
-        <v>0.57366440476190483</v>
+        <v>0.47098809523809537</v>
       </c>
       <c r="D36" s="18">
         <f>(C36/0.8)*100</f>
-        <v>71.708050595238106</v>
-      </c>
-      <c r="E36" s="97" t="s">
+        <v>58.873511904761919</v>
+      </c>
+      <c r="E36" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="96"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1"/>
@@ -2164,113 +2180,113 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="104"/>
-      <c r="J40" s="105"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="100"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="42"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="43"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="42"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="42"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="43"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="42"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="42"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="43"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="42"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="43"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="42"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="42"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="43"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="42"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="42"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="42"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="43"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="42"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="42"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="43"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="42"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="42"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="43"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="42"/>
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="1"/>
-      <c r="B50" s="101"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="47"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="46"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2278,40 +2294,40 @@
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="41"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="104"/>
-      <c r="J51" s="105"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="99"/>
+      <c r="J51" s="100"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="42"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="100"/>
-      <c r="J52" s="100"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="104"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="42"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="100"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
@@ -2324,18 +2340,23 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="104"/>
-      <c r="C59" s="105"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="100"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="104"/>
-      <c r="C66" s="105"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="100"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2343,11 +2364,6 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1б-700 (Кристалл фирм.2  0,7 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1б-700 (Кристалл фирм.2  0,7 л.).xlsx
@@ -959,6 +959,20 @@
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -968,20 +982,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1316,29 +1316,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
       <c r="F2" s="22"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -2090,12 +2090,12 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A34" s="106" t="s">
+      <c r="A34" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2104,10 +2104,10 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="103" t="s">
+      <c r="A35" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="103"/>
+      <c r="B35" s="109"/>
       <c r="C35" s="9" t="s">
         <v>17</v>
       </c>
@@ -2122,11 +2122,11 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="101">
+      <c r="A36" s="107">
         <f>A19-F30</f>
         <v>7912600</v>
       </c>
-      <c r="B36" s="102"/>
+      <c r="B36" s="108"/>
       <c r="C36" s="56">
         <f>1-G30</f>
         <v>0.47098809523809537</v>
@@ -2188,8 +2188,8 @@
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="100"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="106"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="41"/>
@@ -2283,9 +2283,9 @@
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="1"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="108"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="103"/>
       <c r="E50" s="46"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2302,8 +2302,8 @@
       <c r="F51" s="40"/>
       <c r="G51" s="40"/>
       <c r="H51" s="40"/>
-      <c r="I51" s="99"/>
-      <c r="J51" s="100"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="106"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="41"/>
@@ -2314,8 +2314,8 @@
       <c r="F52" s="43"/>
       <c r="G52" s="43"/>
       <c r="H52" s="42"/>
-      <c r="I52" s="104"/>
-      <c r="J52" s="104"/>
+      <c r="I52" s="101"/>
+      <c r="J52" s="101"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="41"/>
@@ -2326,8 +2326,8 @@
       <c r="F53" s="44"/>
       <c r="G53" s="44"/>
       <c r="H53" s="44"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="104"/>
+      <c r="I53" s="101"/>
+      <c r="J53" s="101"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
@@ -2340,23 +2340,18 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="99"/>
-      <c r="C59" s="100"/>
+      <c r="B59" s="105"/>
+      <c r="C59" s="106"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="99"/>
-      <c r="C66" s="100"/>
+      <c r="B66" s="105"/>
+      <c r="C66" s="106"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2364,6 +2359,11 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1б-700 (Кристалл фирм.2  0,7 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1б-700 (Кристалл фирм.2  0,7 л.).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>№Поз</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Начальник УРФ                                            А.Д. Гавриленко</t>
+  </si>
+  <si>
+    <t>Вес, гр</t>
   </si>
 </sst>
 </file>
@@ -699,7 +702,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -959,29 +962,41 @@
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1296,7 +1311,7 @@
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:I26"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1316,29 +1331,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="22"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1743,7 +1758,9 @@
       <c r="I18" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="51"/>
+      <c r="J18" s="32" t="s">
+        <v>43</v>
+      </c>
       <c r="K18" s="51"/>
       <c r="L18" s="51"/>
     </row>
@@ -1771,7 +1788,7 @@
         <f>1-G19</f>
         <v>0.87023809523809526</v>
       </c>
-      <c r="J19" s="52"/>
+      <c r="J19" s="110"/>
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
     </row>
@@ -1797,14 +1814,16 @@
         <v>3.0805238095238094E-2</v>
       </c>
       <c r="H20" s="94">
-        <f t="shared" ref="H20:I24" si="3">H19-F20</f>
+        <f t="shared" ref="H20:J24" si="3">H19-F20</f>
         <v>14102472</v>
       </c>
       <c r="I20" s="57">
         <f t="shared" si="3"/>
         <v>0.8394328571428572</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="110">
+        <v>435</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
@@ -1837,7 +1856,7 @@
         <f t="shared" si="3"/>
         <v>0.77968738095238099</v>
       </c>
-      <c r="J21" s="52"/>
+      <c r="J21" s="110"/>
       <c r="K21" s="44"/>
       <c r="L21" s="44"/>
     </row>
@@ -1870,7 +1889,7 @@
         <f t="shared" si="3"/>
         <v>0.76180065476190484</v>
       </c>
-      <c r="J22" s="52"/>
+      <c r="J22" s="110"/>
       <c r="K22" s="52"/>
       <c r="L22" s="1"/>
     </row>
@@ -1903,7 +1922,9 @@
         <f t="shared" si="3"/>
         <v>0.71346398809523814</v>
       </c>
-      <c r="J23" s="52"/>
+      <c r="J23" s="110">
+        <v>437</v>
+      </c>
       <c r="K23" s="53"/>
       <c r="L23" s="1"/>
     </row>
@@ -1934,7 +1955,7 @@
         <f t="shared" si="3"/>
         <v>0.62282154761904762</v>
       </c>
-      <c r="J24" s="52"/>
+      <c r="J24" s="110"/>
       <c r="K24" s="52"/>
       <c r="L24" s="1"/>
     </row>
@@ -1964,10 +1985,10 @@
         <v>9637562</v>
       </c>
       <c r="I25" s="57">
-        <f t="shared" ref="I25" si="5">I24-G25</f>
+        <f t="shared" ref="I25:J25" si="5">I24-G25</f>
         <v>0.57366440476190472</v>
       </c>
-      <c r="J25" s="52"/>
+      <c r="J25" s="110"/>
       <c r="K25" s="52"/>
       <c r="L25" s="1"/>
     </row>
@@ -1997,10 +2018,12 @@
         <v>7912600</v>
       </c>
       <c r="I26" s="57">
-        <f t="shared" ref="I26" si="7">I25-G26</f>
+        <f t="shared" ref="I26:J26" si="7">I25-G26</f>
         <v>0.47098809523809521</v>
       </c>
-      <c r="J26" s="52"/>
+      <c r="J26" s="110">
+        <v>438</v>
+      </c>
       <c r="K26" s="52"/>
       <c r="L26" s="1"/>
     </row>
@@ -2014,7 +2037,7 @@
       <c r="G27" s="79"/>
       <c r="H27" s="94"/>
       <c r="I27" s="84"/>
-      <c r="J27" s="52"/>
+      <c r="J27" s="111"/>
       <c r="K27" s="52"/>
       <c r="L27" s="1"/>
     </row>
@@ -2028,7 +2051,7 @@
       <c r="G28" s="78"/>
       <c r="H28" s="94"/>
       <c r="I28" s="84"/>
-      <c r="J28" s="52"/>
+      <c r="J28" s="111"/>
       <c r="K28" s="52"/>
       <c r="L28" s="1"/>
     </row>
@@ -2042,7 +2065,7 @@
       <c r="G29" s="81"/>
       <c r="H29" s="95"/>
       <c r="I29" s="87"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="112"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
@@ -2073,7 +2096,7 @@
         <f>1-G30</f>
         <v>0.47098809523809537</v>
       </c>
-      <c r="J30" s="54"/>
+      <c r="J30" s="113"/>
       <c r="K30" s="54"/>
       <c r="L30" s="54"/>
     </row>
@@ -2090,12 +2113,12 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A34" s="100" t="s">
+      <c r="A34" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="100"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2104,10 +2127,10 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="109" t="s">
+      <c r="A35" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="109"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="9" t="s">
         <v>17</v>
       </c>
@@ -2122,11 +2145,11 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="107">
+      <c r="A36" s="101">
         <f>A19-F30</f>
         <v>7912600</v>
       </c>
-      <c r="B36" s="108"/>
+      <c r="B36" s="102"/>
       <c r="C36" s="56">
         <f>1-G30</f>
         <v>0.47098809523809537</v>
@@ -2188,8 +2211,8 @@
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="106"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="100"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="41"/>
@@ -2283,9 +2306,9 @@
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="1"/>
-      <c r="B50" s="102"/>
-      <c r="C50" s="102"/>
-      <c r="D50" s="103"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="108"/>
       <c r="E50" s="46"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2302,8 +2325,8 @@
       <c r="F51" s="40"/>
       <c r="G51" s="40"/>
       <c r="H51" s="40"/>
-      <c r="I51" s="105"/>
-      <c r="J51" s="106"/>
+      <c r="I51" s="99"/>
+      <c r="J51" s="100"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="41"/>
@@ -2314,8 +2337,8 @@
       <c r="F52" s="43"/>
       <c r="G52" s="43"/>
       <c r="H52" s="42"/>
-      <c r="I52" s="101"/>
-      <c r="J52" s="101"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="104"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="41"/>
@@ -2326,8 +2349,8 @@
       <c r="F53" s="44"/>
       <c r="G53" s="44"/>
       <c r="H53" s="44"/>
-      <c r="I53" s="101"/>
-      <c r="J53" s="101"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
@@ -2340,18 +2363,23 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="105"/>
-      <c r="C59" s="106"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="100"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="105"/>
-      <c r="C66" s="106"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="100"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2359,11 +2387,6 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1б-700 (Кристалл фирм.2  0,7 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1б-700 (Кристалл фирм.2  0,7 л.).xlsx
@@ -169,7 +169,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -266,16 +266,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -702,7 +692,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -817,8 +807,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -850,12 +840,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -865,7 +852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -875,12 +862,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,6 +942,18 @@
     </xf>
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -987,17 +980,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1310,8 +1297,8 @@
   </sheetPr>
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1331,29 +1318,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
       <c r="F2" s="22"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1425,111 +1412,111 @@
       <c r="E5" s="33">
         <v>24</v>
       </c>
-      <c r="F5" s="62"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="33">
         <f>E5-F5</f>
         <v>24</v>
       </c>
       <c r="H5" s="35"/>
-      <c r="I5" s="63"/>
+      <c r="I5" s="62"/>
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
-      <c r="L5" s="64"/>
+      <c r="L5" s="63"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="65">
+      <c r="A6" s="64">
         <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="65" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="8">
         <v>24</v>
       </c>
-      <c r="F6" s="67"/>
+      <c r="F6" s="112"/>
       <c r="G6" s="8">
         <f t="shared" ref="G6:G15" si="0">E6-F6</f>
         <v>24</v>
       </c>
       <c r="H6" s="36"/>
-      <c r="I6" s="68"/>
+      <c r="I6" s="67"/>
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
-      <c r="L6" s="69"/>
+      <c r="L6" s="68"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="65">
+      <c r="A7" s="64">
         <f t="shared" ref="A7:A15" si="1">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="65" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="8">
         <v>32</v>
       </c>
-      <c r="F7" s="67"/>
+      <c r="F7" s="112"/>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="68"/>
+      <c r="I7" s="67"/>
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
-      <c r="L7" s="69"/>
+      <c r="L7" s="68"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="65">
+      <c r="A8" s="64">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B8" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="65" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="8">
         <v>32</v>
       </c>
-      <c r="F8" s="67"/>
+      <c r="F8" s="112"/>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="68"/>
+      <c r="I8" s="67"/>
       <c r="J8" s="8"/>
       <c r="K8" s="39"/>
-      <c r="L8" s="69"/>
+      <c r="L8" s="68"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="65">
+      <c r="A9" s="64">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B9" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="65" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="8">
         <v>20</v>
       </c>
-      <c r="F9" s="67"/>
+      <c r="F9" s="112"/>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1538,77 +1525,79 @@
       <c r="I9" s="34"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="69"/>
+      <c r="L9" s="68"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="65">
+      <c r="A10" s="64">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B10" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="65" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="8">
         <v>24</v>
       </c>
-      <c r="F10" s="67"/>
+      <c r="F10" s="112"/>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="H10" s="37"/>
-      <c r="I10" s="68"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="8"/>
       <c r="K10" s="39"/>
-      <c r="L10" s="69"/>
+      <c r="L10" s="68"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="65">
+      <c r="A11" s="64">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B11" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="65" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="8">
         <v>57</v>
       </c>
-      <c r="F11" s="70"/>
+      <c r="F11" s="112">
+        <v>17</v>
+      </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="34"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="69"/>
+      <c r="L11" s="68"/>
       <c r="M11" s="20"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="65">
+      <c r="A12" s="64">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B12" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="65" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="8">
         <v>21</v>
       </c>
-      <c r="F12" s="71"/>
+      <c r="F12" s="112"/>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1617,25 +1606,25 @@
       <c r="I12" s="34"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="69"/>
+      <c r="L12" s="68"/>
       <c r="M12" s="20"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="65">
+      <c r="A13" s="64">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B13" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="65" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="8">
         <v>8</v>
       </c>
-      <c r="F13" s="67"/>
+      <c r="F13" s="112"/>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1646,61 +1635,63 @@
       <c r="I13" s="34"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="69"/>
+      <c r="L13" s="68"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="65">
+      <c r="A14" s="64">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B14" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="65" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="8">
         <v>50</v>
       </c>
-      <c r="F14" s="70">
-        <v>7</v>
+      <c r="F14" s="112">
+        <v>11</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H14" s="37"/>
       <c r="I14" s="34"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="69"/>
+      <c r="L14" s="68"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="65">
+      <c r="A15" s="64">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B15" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="65" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="10">
         <v>60</v>
       </c>
-      <c r="F15" s="67"/>
+      <c r="F15" s="112">
+        <v>2</v>
+      </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="37"/>
       <c r="I15" s="34"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="69"/>
+      <c r="L15" s="68"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="48"/>
@@ -1769,18 +1760,18 @@
         <f>E5*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="82">
+      <c r="B19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="79">
         <v>2180000</v>
       </c>
-      <c r="G19" s="74">
-        <f t="shared" ref="G19:G26" si="2">F19/A$19</f>
+      <c r="G19" s="71">
+        <f t="shared" ref="G19:G27" si="2">F19/A$19</f>
         <v>0.12976190476190477</v>
       </c>
-      <c r="H19" s="93">
+      <c r="H19" s="90">
         <f>A19-F19</f>
         <v>14620000</v>
       </c>
@@ -1788,40 +1779,40 @@
         <f>1-G19</f>
         <v>0.87023809523809526</v>
       </c>
-      <c r="J19" s="110"/>
+      <c r="J19" s="96"/>
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A20" s="65"/>
-      <c r="B20" s="75">
+      <c r="A20" s="64"/>
+      <c r="B20" s="72">
         <v>43514</v>
       </c>
-      <c r="C20" s="75">
+      <c r="C20" s="72">
         <v>43518</v>
       </c>
-      <c r="D20" s="75">
+      <c r="D20" s="72">
         <v>43520</v>
       </c>
-      <c r="E20" s="89">
+      <c r="E20" s="86">
         <v>476718</v>
       </c>
-      <c r="F20" s="83">
+      <c r="F20" s="80">
         <v>517528</v>
       </c>
-      <c r="G20" s="74">
+      <c r="G20" s="71">
         <f t="shared" si="2"/>
         <v>3.0805238095238094E-2</v>
       </c>
-      <c r="H20" s="94">
-        <f t="shared" ref="H20:J24" si="3">H19-F20</f>
+      <c r="H20" s="91">
+        <f t="shared" ref="H20:I24" si="3">H19-F20</f>
         <v>14102472</v>
       </c>
       <c r="I20" s="57">
         <f t="shared" si="3"/>
         <v>0.8394328571428572</v>
       </c>
-      <c r="J20" s="110">
+      <c r="J20" s="96">
         <v>435</v>
       </c>
       <c r="K20" s="1"/>
@@ -1829,26 +1820,26 @@
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
       <c r="A21" s="12"/>
-      <c r="B21" s="77">
+      <c r="B21" s="74">
         <v>43579</v>
       </c>
-      <c r="C21" s="77">
+      <c r="C21" s="74">
         <v>43585</v>
       </c>
-      <c r="D21" s="77">
+      <c r="D21" s="74">
         <v>43586</v>
       </c>
-      <c r="E21" s="90">
+      <c r="E21" s="87">
         <v>935262</v>
       </c>
-      <c r="F21" s="76">
+      <c r="F21" s="73">
         <v>1003724</v>
       </c>
-      <c r="G21" s="74">
+      <c r="G21" s="71">
         <f t="shared" si="2"/>
         <v>5.9745476190476189E-2</v>
       </c>
-      <c r="H21" s="94">
+      <c r="H21" s="91">
         <f t="shared" si="3"/>
         <v>13098748</v>
       </c>
@@ -1856,32 +1847,32 @@
         <f t="shared" si="3"/>
         <v>0.77968738095238099</v>
       </c>
-      <c r="J21" s="110"/>
+      <c r="J21" s="96"/>
       <c r="K21" s="44"/>
       <c r="L21" s="44"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="12"/>
-      <c r="B22" s="77">
+      <c r="B22" s="74">
         <v>43586</v>
       </c>
-      <c r="C22" s="77">
+      <c r="C22" s="74">
         <v>43588</v>
       </c>
-      <c r="D22" s="77">
+      <c r="D22" s="74">
         <v>43595</v>
       </c>
-      <c r="E22" s="91">
+      <c r="E22" s="88">
         <v>279600</v>
       </c>
-      <c r="F22" s="67">
+      <c r="F22" s="66">
         <v>300497</v>
       </c>
-      <c r="G22" s="74">
+      <c r="G22" s="71">
         <f t="shared" si="2"/>
         <v>1.7886726190476189E-2</v>
       </c>
-      <c r="H22" s="94">
+      <c r="H22" s="91">
         <f t="shared" si="3"/>
         <v>12798251</v>
       </c>
@@ -1889,32 +1880,32 @@
         <f t="shared" si="3"/>
         <v>0.76180065476190484</v>
       </c>
-      <c r="J22" s="110"/>
+      <c r="J22" s="96"/>
       <c r="K22" s="52"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="12"/>
-      <c r="B23" s="77">
+      <c r="B23" s="74">
         <v>43627</v>
       </c>
-      <c r="C23" s="77">
+      <c r="C23" s="74">
         <v>43632</v>
       </c>
-      <c r="D23" s="77">
+      <c r="D23" s="74">
         <v>43636</v>
       </c>
-      <c r="E23" s="90">
+      <c r="E23" s="87">
         <v>759114</v>
       </c>
-      <c r="F23" s="76">
+      <c r="F23" s="73">
         <v>812056</v>
       </c>
-      <c r="G23" s="78">
+      <c r="G23" s="75">
         <f t="shared" si="2"/>
         <v>4.8336666666666667E-2</v>
       </c>
-      <c r="H23" s="94">
+      <c r="H23" s="91">
         <f t="shared" si="3"/>
         <v>11986195</v>
       </c>
@@ -1922,7 +1913,7 @@
         <f t="shared" si="3"/>
         <v>0.71346398809523814</v>
       </c>
-      <c r="J23" s="110">
+      <c r="J23" s="96">
         <v>437</v>
       </c>
       <c r="K23" s="53"/>
@@ -1930,24 +1921,24 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="12"/>
-      <c r="B24" s="77">
+      <c r="B24" s="74">
         <v>43660</v>
       </c>
-      <c r="C24" s="77">
+      <c r="C24" s="74">
         <v>43670</v>
       </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="90">
+      <c r="D24" s="74"/>
+      <c r="E24" s="87">
         <v>1430154</v>
       </c>
-      <c r="F24" s="76">
+      <c r="F24" s="73">
         <v>1522793</v>
       </c>
-      <c r="G24" s="78">
+      <c r="G24" s="75">
         <f t="shared" si="2"/>
         <v>9.0642440476190481E-2</v>
       </c>
-      <c r="H24" s="94">
+      <c r="H24" s="91">
         <f t="shared" si="3"/>
         <v>10463402</v>
       </c>
@@ -1955,73 +1946,73 @@
         <f t="shared" si="3"/>
         <v>0.62282154761904762</v>
       </c>
-      <c r="J24" s="110"/>
+      <c r="J24" s="96"/>
       <c r="K24" s="52"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="12"/>
-      <c r="B25" s="77">
+      <c r="B25" s="74">
         <v>43720</v>
       </c>
-      <c r="C25" s="77">
+      <c r="C25" s="74">
         <v>43725</v>
       </c>
-      <c r="D25" s="77">
+      <c r="D25" s="74">
         <v>43727</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="87">
         <v>777288</v>
       </c>
-      <c r="F25" s="76">
+      <c r="F25" s="73">
         <v>825840</v>
       </c>
-      <c r="G25" s="78">
+      <c r="G25" s="75">
         <f t="shared" si="2"/>
         <v>4.9157142857142858E-2</v>
       </c>
-      <c r="H25" s="94">
+      <c r="H25" s="91">
         <f t="shared" ref="H25" si="4">H24-F25</f>
         <v>9637562</v>
       </c>
       <c r="I25" s="57">
-        <f t="shared" ref="I25:J25" si="5">I24-G25</f>
+        <f t="shared" ref="I25" si="5">I24-G25</f>
         <v>0.57366440476190472</v>
       </c>
-      <c r="J25" s="110"/>
+      <c r="J25" s="96"/>
       <c r="K25" s="52"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="12"/>
-      <c r="B26" s="77">
+      <c r="B26" s="74">
         <v>43756</v>
       </c>
-      <c r="C26" s="77">
+      <c r="C26" s="74">
         <v>43767</v>
       </c>
-      <c r="D26" s="77">
+      <c r="D26" s="74">
         <v>43769</v>
       </c>
-      <c r="E26" s="90">
+      <c r="E26" s="87">
         <v>1662780</v>
       </c>
-      <c r="F26" s="76">
+      <c r="F26" s="73">
         <v>1724962</v>
       </c>
-      <c r="G26" s="78">
+      <c r="G26" s="75">
         <f t="shared" si="2"/>
         <v>0.10267630952380952</v>
       </c>
-      <c r="H26" s="94">
+      <c r="H26" s="91">
         <f t="shared" ref="H26" si="6">H25-F26</f>
         <v>7912600</v>
       </c>
       <c r="I26" s="57">
-        <f t="shared" ref="I26:J26" si="7">I25-G26</f>
+        <f t="shared" ref="I26" si="7">I25-G26</f>
         <v>0.47098809523809521</v>
       </c>
-      <c r="J26" s="110">
+      <c r="J26" s="96">
         <v>438</v>
       </c>
       <c r="K26" s="52"/>
@@ -2029,43 +2020,64 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="12"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="111"/>
+      <c r="B27" s="74">
+        <v>43873</v>
+      </c>
+      <c r="C27" s="74">
+        <v>43879</v>
+      </c>
+      <c r="D27" s="74">
+        <v>43881</v>
+      </c>
+      <c r="E27" s="88">
+        <v>1027530</v>
+      </c>
+      <c r="F27" s="73">
+        <v>1074025</v>
+      </c>
+      <c r="G27" s="76">
+        <f t="shared" si="2"/>
+        <v>6.3930059523809521E-2</v>
+      </c>
+      <c r="H27" s="91">
+        <f t="shared" ref="H27" si="8">H26-F27</f>
+        <v>6838575</v>
+      </c>
+      <c r="I27" s="57">
+        <f t="shared" ref="I27" si="9">I26-G27</f>
+        <v>0.40705803571428567</v>
+      </c>
+      <c r="J27" s="97">
+        <v>437</v>
+      </c>
       <c r="K27" s="52"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="12"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="111"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="97"/>
       <c r="K28" s="52"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="13.8" thickBot="1">
       <c r="A29" s="13"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="112"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="98"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
@@ -2076,27 +2088,27 @@
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="97">
+      <c r="E30" s="94">
         <f>SUM(E19:E29)</f>
-        <v>6320916</v>
-      </c>
-      <c r="F30" s="98">
+        <v>7348446</v>
+      </c>
+      <c r="F30" s="95">
         <f>SUM(F19:F29)</f>
-        <v>8887400</v>
+        <v>9961425</v>
       </c>
       <c r="G30" s="19">
         <f>SUM(G19:G29)</f>
-        <v>0.52901190476190463</v>
+        <v>0.59294196428571411</v>
       </c>
       <c r="H30" s="17">
         <f>A19-F30</f>
-        <v>7912600</v>
+        <v>6838575</v>
       </c>
       <c r="I30" s="21">
         <f>1-G30</f>
-        <v>0.47098809523809537</v>
-      </c>
-      <c r="J30" s="113"/>
+        <v>0.40705803571428589</v>
+      </c>
+      <c r="J30" s="99"/>
       <c r="K30" s="54"/>
       <c r="L30" s="54"/>
     </row>
@@ -2113,12 +2125,12 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A34" s="106" t="s">
+      <c r="A34" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2127,10 +2139,10 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="103" t="s">
+      <c r="A35" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="103"/>
+      <c r="B35" s="104"/>
       <c r="C35" s="9" t="s">
         <v>17</v>
       </c>
@@ -2145,27 +2157,27 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="101">
+      <c r="A36" s="102">
         <f>A19-F30</f>
-        <v>7912600</v>
-      </c>
-      <c r="B36" s="102"/>
+        <v>6838575</v>
+      </c>
+      <c r="B36" s="103"/>
       <c r="C36" s="56">
         <f>1-G30</f>
-        <v>0.47098809523809537</v>
+        <v>0.40705803571428589</v>
       </c>
       <c r="D36" s="18">
         <f>(C36/0.8)*100</f>
-        <v>58.873511904761919</v>
-      </c>
-      <c r="E36" s="96" t="s">
+        <v>50.882254464285737</v>
+      </c>
+      <c r="E36" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="96"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1"/>
@@ -2211,8 +2223,8 @@
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="101"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="41"/>
@@ -2306,9 +2318,9 @@
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="1"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="108"/>
+      <c r="B50" s="108"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="109"/>
       <c r="E50" s="46"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2325,8 +2337,8 @@
       <c r="F51" s="40"/>
       <c r="G51" s="40"/>
       <c r="H51" s="40"/>
-      <c r="I51" s="99"/>
-      <c r="J51" s="100"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="101"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="41"/>
@@ -2337,8 +2349,8 @@
       <c r="F52" s="43"/>
       <c r="G52" s="43"/>
       <c r="H52" s="42"/>
-      <c r="I52" s="104"/>
-      <c r="J52" s="104"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="105"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="41"/>
@@ -2349,8 +2361,8 @@
       <c r="F53" s="44"/>
       <c r="G53" s="44"/>
       <c r="H53" s="44"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="104"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
@@ -2363,12 +2375,12 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="99"/>
-      <c r="C59" s="100"/>
+      <c r="B59" s="100"/>
+      <c r="C59" s="101"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="99"/>
-      <c r="C66" s="100"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="101"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1б-700 (Кристалл фирм.2  0,7 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1б-700 (Кристалл фирм.2  0,7 л.).xlsx
@@ -17,7 +17,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$40</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -155,7 +155,7 @@
     <t>Начальник УРФ                                            А.Д. Гавриленко</t>
   </si>
   <si>
-    <t>Вес, гр</t>
+    <t>Вес, гр. (ном. 435 гр.)</t>
   </si>
 </sst>
 </file>
@@ -900,9 +900,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -955,18 +952,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -974,16 +963,27 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1295,10 +1295,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1318,29 +1318,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
       <c r="F2" s="22"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1412,7 +1412,7 @@
       <c r="E5" s="33">
         <v>24</v>
       </c>
-      <c r="F5" s="111"/>
+      <c r="F5" s="99"/>
       <c r="G5" s="33">
         <f>E5-F5</f>
         <v>24</v>
@@ -1438,7 +1438,7 @@
       <c r="E6" s="8">
         <v>24</v>
       </c>
-      <c r="F6" s="112"/>
+      <c r="F6" s="100"/>
       <c r="G6" s="8">
         <f t="shared" ref="G6:G15" si="0">E6-F6</f>
         <v>24</v>
@@ -1464,7 +1464,7 @@
       <c r="E7" s="8">
         <v>32</v>
       </c>
-      <c r="F7" s="112"/>
+      <c r="F7" s="100"/>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1490,7 +1490,7 @@
       <c r="E8" s="8">
         <v>32</v>
       </c>
-      <c r="F8" s="112"/>
+      <c r="F8" s="100"/>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1516,7 +1516,7 @@
       <c r="E9" s="8">
         <v>20</v>
       </c>
-      <c r="F9" s="112"/>
+      <c r="F9" s="100"/>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1542,7 +1542,7 @@
       <c r="E10" s="8">
         <v>24</v>
       </c>
-      <c r="F10" s="112"/>
+      <c r="F10" s="100"/>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1568,12 +1568,12 @@
       <c r="E11" s="8">
         <v>57</v>
       </c>
-      <c r="F11" s="112">
-        <v>17</v>
+      <c r="F11" s="100">
+        <v>23</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="34"/>
@@ -1597,7 +1597,7 @@
       <c r="E12" s="8">
         <v>21</v>
       </c>
-      <c r="F12" s="112"/>
+      <c r="F12" s="100"/>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1624,7 +1624,7 @@
       <c r="E13" s="8">
         <v>8</v>
       </c>
-      <c r="F13" s="112"/>
+      <c r="F13" s="100"/>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1652,7 +1652,7 @@
       <c r="E14" s="8">
         <v>50</v>
       </c>
-      <c r="F14" s="112">
+      <c r="F14" s="100">
         <v>11</v>
       </c>
       <c r="G14" s="8">
@@ -1680,7 +1680,7 @@
       <c r="E15" s="10">
         <v>60</v>
       </c>
-      <c r="F15" s="112">
+      <c r="F15" s="100">
         <v>2</v>
       </c>
       <c r="G15" s="8">
@@ -1763,15 +1763,15 @@
       <c r="B19" s="69"/>
       <c r="C19" s="70"/>
       <c r="D19" s="69"/>
-      <c r="E19" s="85"/>
+      <c r="E19" s="84"/>
       <c r="F19" s="79">
         <v>2180000</v>
       </c>
       <c r="G19" s="71">
-        <f t="shared" ref="G19:G27" si="2">F19/A$19</f>
+        <f t="shared" ref="G19:G28" si="2">F19/A$19</f>
         <v>0.12976190476190477</v>
       </c>
-      <c r="H19" s="90">
+      <c r="H19" s="89">
         <f>A19-F19</f>
         <v>14620000</v>
       </c>
@@ -1779,7 +1779,7 @@
         <f>1-G19</f>
         <v>0.87023809523809526</v>
       </c>
-      <c r="J19" s="96"/>
+      <c r="J19" s="95"/>
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
     </row>
@@ -1794,7 +1794,7 @@
       <c r="D20" s="72">
         <v>43520</v>
       </c>
-      <c r="E20" s="86">
+      <c r="E20" s="85">
         <v>476718</v>
       </c>
       <c r="F20" s="80">
@@ -1804,7 +1804,7 @@
         <f t="shared" si="2"/>
         <v>3.0805238095238094E-2</v>
       </c>
-      <c r="H20" s="91">
+      <c r="H20" s="90">
         <f t="shared" ref="H20:I24" si="3">H19-F20</f>
         <v>14102472</v>
       </c>
@@ -1812,7 +1812,7 @@
         <f t="shared" si="3"/>
         <v>0.8394328571428572</v>
       </c>
-      <c r="J20" s="96">
+      <c r="J20" s="95">
         <v>435</v>
       </c>
       <c r="K20" s="1"/>
@@ -1829,7 +1829,7 @@
       <c r="D21" s="74">
         <v>43586</v>
       </c>
-      <c r="E21" s="87">
+      <c r="E21" s="86">
         <v>935262</v>
       </c>
       <c r="F21" s="73">
@@ -1839,7 +1839,7 @@
         <f t="shared" si="2"/>
         <v>5.9745476190476189E-2</v>
       </c>
-      <c r="H21" s="91">
+      <c r="H21" s="90">
         <f t="shared" si="3"/>
         <v>13098748</v>
       </c>
@@ -1847,7 +1847,7 @@
         <f t="shared" si="3"/>
         <v>0.77968738095238099</v>
       </c>
-      <c r="J21" s="96"/>
+      <c r="J21" s="95"/>
       <c r="K21" s="44"/>
       <c r="L21" s="44"/>
     </row>
@@ -1862,7 +1862,7 @@
       <c r="D22" s="74">
         <v>43595</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <v>279600</v>
       </c>
       <c r="F22" s="66">
@@ -1872,7 +1872,7 @@
         <f t="shared" si="2"/>
         <v>1.7886726190476189E-2</v>
       </c>
-      <c r="H22" s="91">
+      <c r="H22" s="90">
         <f t="shared" si="3"/>
         <v>12798251</v>
       </c>
@@ -1880,7 +1880,7 @@
         <f t="shared" si="3"/>
         <v>0.76180065476190484</v>
       </c>
-      <c r="J22" s="96"/>
+      <c r="J22" s="95"/>
       <c r="K22" s="52"/>
       <c r="L22" s="1"/>
     </row>
@@ -1895,7 +1895,7 @@
       <c r="D23" s="74">
         <v>43636</v>
       </c>
-      <c r="E23" s="87">
+      <c r="E23" s="86">
         <v>759114</v>
       </c>
       <c r="F23" s="73">
@@ -1905,7 +1905,7 @@
         <f t="shared" si="2"/>
         <v>4.8336666666666667E-2</v>
       </c>
-      <c r="H23" s="91">
+      <c r="H23" s="90">
         <f t="shared" si="3"/>
         <v>11986195</v>
       </c>
@@ -1913,7 +1913,7 @@
         <f t="shared" si="3"/>
         <v>0.71346398809523814</v>
       </c>
-      <c r="J23" s="96">
+      <c r="J23" s="95">
         <v>437</v>
       </c>
       <c r="K23" s="53"/>
@@ -1928,7 +1928,7 @@
         <v>43670</v>
       </c>
       <c r="D24" s="74"/>
-      <c r="E24" s="87">
+      <c r="E24" s="86">
         <v>1430154</v>
       </c>
       <c r="F24" s="73">
@@ -1938,7 +1938,7 @@
         <f t="shared" si="2"/>
         <v>9.0642440476190481E-2</v>
       </c>
-      <c r="H24" s="91">
+      <c r="H24" s="90">
         <f t="shared" si="3"/>
         <v>10463402</v>
       </c>
@@ -1946,7 +1946,7 @@
         <f t="shared" si="3"/>
         <v>0.62282154761904762</v>
       </c>
-      <c r="J24" s="96"/>
+      <c r="J24" s="95"/>
       <c r="K24" s="52"/>
       <c r="L24" s="1"/>
     </row>
@@ -1961,7 +1961,7 @@
       <c r="D25" s="74">
         <v>43727</v>
       </c>
-      <c r="E25" s="87">
+      <c r="E25" s="86">
         <v>777288</v>
       </c>
       <c r="F25" s="73">
@@ -1971,7 +1971,7 @@
         <f t="shared" si="2"/>
         <v>4.9157142857142858E-2</v>
       </c>
-      <c r="H25" s="91">
+      <c r="H25" s="90">
         <f t="shared" ref="H25" si="4">H24-F25</f>
         <v>9637562</v>
       </c>
@@ -1979,7 +1979,7 @@
         <f t="shared" ref="I25" si="5">I24-G25</f>
         <v>0.57366440476190472</v>
       </c>
-      <c r="J25" s="96"/>
+      <c r="J25" s="95"/>
       <c r="K25" s="52"/>
       <c r="L25" s="1"/>
     </row>
@@ -1994,7 +1994,7 @@
       <c r="D26" s="74">
         <v>43769</v>
       </c>
-      <c r="E26" s="87">
+      <c r="E26" s="86">
         <v>1662780</v>
       </c>
       <c r="F26" s="73">
@@ -2004,7 +2004,7 @@
         <f t="shared" si="2"/>
         <v>0.10267630952380952</v>
       </c>
-      <c r="H26" s="91">
+      <c r="H26" s="90">
         <f t="shared" ref="H26" si="6">H25-F26</f>
         <v>7912600</v>
       </c>
@@ -2012,7 +2012,7 @@
         <f t="shared" ref="I26" si="7">I25-G26</f>
         <v>0.47098809523809521</v>
       </c>
-      <c r="J26" s="96">
+      <c r="J26" s="95">
         <v>438</v>
       </c>
       <c r="K26" s="52"/>
@@ -2029,7 +2029,7 @@
       <c r="D27" s="74">
         <v>43881</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <v>1027530</v>
       </c>
       <c r="F27" s="73">
@@ -2039,7 +2039,7 @@
         <f t="shared" si="2"/>
         <v>6.3930059523809521E-2</v>
       </c>
-      <c r="H27" s="91">
+      <c r="H27" s="90">
         <f t="shared" ref="H27" si="8">H26-F27</f>
         <v>6838575</v>
       </c>
@@ -2047,7 +2047,7 @@
         <f t="shared" ref="I27" si="9">I26-G27</f>
         <v>0.40705803571428567</v>
       </c>
-      <c r="J27" s="97">
+      <c r="J27" s="96">
         <v>437</v>
       </c>
       <c r="K27" s="52"/>
@@ -2055,158 +2055,177 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="12"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="97"/>
+      <c r="B28" s="74">
+        <v>43906</v>
+      </c>
+      <c r="C28" s="74">
+        <v>43913</v>
+      </c>
+      <c r="D28" s="74">
+        <v>43920</v>
+      </c>
+      <c r="E28" s="87">
+        <v>1186902</v>
+      </c>
+      <c r="F28" s="73">
+        <v>1234411</v>
+      </c>
+      <c r="G28" s="75">
+        <f t="shared" si="2"/>
+        <v>7.3476845238095237E-2</v>
+      </c>
+      <c r="H28" s="90">
+        <f t="shared" ref="H28" si="10">H27-F28</f>
+        <v>5604164</v>
+      </c>
+      <c r="I28" s="57">
+        <f t="shared" ref="I28" si="11">I27-G28</f>
+        <v>0.33358119047619045</v>
+      </c>
+      <c r="J28" s="96">
+        <v>437</v>
+      </c>
       <c r="K28" s="52"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="13.8" thickBot="1">
+    <row r="29" spans="1:12">
       <c r="A29" s="13"/>
       <c r="B29" s="77"/>
       <c r="C29" s="77"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="83"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="82"/>
       <c r="G29" s="78"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="1"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="52"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:12">
+      <c r="A30" s="13"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="13"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="13"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" ht="13.8" thickBot="1">
+      <c r="A33" s="13"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" ht="13.8" thickBot="1">
+      <c r="A34" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="94">
-        <f>SUM(E19:E29)</f>
-        <v>7348446</v>
-      </c>
-      <c r="F30" s="95">
-        <f>SUM(F19:F29)</f>
-        <v>9961425</v>
-      </c>
-      <c r="G30" s="19">
-        <f>SUM(G19:G29)</f>
-        <v>0.59294196428571411</v>
-      </c>
-      <c r="H30" s="17">
-        <f>A19-F30</f>
-        <v>6838575</v>
-      </c>
-      <c r="I30" s="21">
-        <f>1-G30</f>
-        <v>0.40705803571428589</v>
-      </c>
-      <c r="J30" s="99"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A34" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="104" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="104"/>
-      <c r="C35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="102">
-        <f>A19-F30</f>
-        <v>6838575</v>
-      </c>
-      <c r="B36" s="103"/>
-      <c r="C36" s="56">
-        <f>1-G30</f>
-        <v>0.40705803571428589</v>
-      </c>
-      <c r="D36" s="18">
-        <f>(C36/0.8)*100</f>
-        <v>50.882254464285737</v>
-      </c>
-      <c r="E36" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="93"/>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="93">
+        <f>SUM(E19:E33)</f>
+        <v>8535348</v>
+      </c>
+      <c r="F34" s="94">
+        <f>SUM(F19:F33)</f>
+        <v>11195836</v>
+      </c>
+      <c r="G34" s="19">
+        <f>SUM(G19:G33)</f>
+        <v>0.66641880952380939</v>
+      </c>
+      <c r="H34" s="17">
+        <f>A19-F34</f>
+        <v>5604164</v>
+      </c>
+      <c r="I34" s="21">
+        <f>1-G34</f>
+        <v>0.33358119047619061</v>
+      </c>
+      <c r="J34" s="98"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A38" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="K38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.6">
-      <c r="A39" s="1"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="1"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="111"/>
+      <c r="C39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -2214,59 +2233,77 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="101"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="41"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
+    <row r="40" spans="1:12">
+      <c r="A40" s="109">
+        <f>A19-F34</f>
+        <v>5604164</v>
+      </c>
+      <c r="B40" s="110"/>
+      <c r="C40" s="56">
+        <f>1-G34</f>
+        <v>0.33358119047619061</v>
+      </c>
+      <c r="D40" s="18">
+        <f>(C40/0.8)*100</f>
+        <v>41.697648809523827</v>
+      </c>
+      <c r="E40" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="42"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="41"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="42"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="41"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.6">
+      <c r="A43" s="1"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="42"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="41"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="42"/>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="108"/>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="41"/>
       <c r="B45" s="42"/>
       <c r="C45" s="42"/>
@@ -2276,27 +2313,27 @@
       <c r="G45" s="43"/>
       <c r="H45" s="42"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:12">
       <c r="A46" s="41"/>
       <c r="B46" s="42"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="42"/>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="41"/>
       <c r="B47" s="42"/>
       <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
       <c r="F47" s="42"/>
       <c r="G47" s="43"/>
       <c r="H47" s="42"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:12">
       <c r="A48" s="41"/>
       <c r="B48" s="42"/>
       <c r="C48" s="42"/>
@@ -2316,97 +2353,137 @@
       <c r="G49" s="43"/>
       <c r="H49" s="42"/>
     </row>
-    <row r="50" spans="1:10" ht="15.6">
-      <c r="A50" s="1"/>
-      <c r="B50" s="108"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="109"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+    <row r="50" spans="1:10">
+      <c r="A50" s="41"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="40"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="101"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="42"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="41"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="43"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
       <c r="G52" s="43"/>
       <c r="H52" s="42"/>
-      <c r="I52" s="105"/>
-      <c r="J52" s="105"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="41"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="105"/>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="42"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.6">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="46"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="B59" s="100"/>
-      <c r="C59" s="101"/>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="100"/>
-      <c r="C66" s="101"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="107"/>
+      <c r="J55" s="108"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="41"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="103"/>
+      <c r="J56" s="103"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="41"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="103"/>
+      <c r="J57" s="103"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="B63" s="107"/>
+      <c r="C63" s="108"/>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="107"/>
+      <c r="C70" s="108"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I56:J56"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="36" max="12" man="1"/>
+    <brk id="40" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1б-700 (Кристалл фирм.2  0,7 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1б-700 (Кристалл фирм.2  0,7 л.).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Александр Гавриленко\Работа\vedatranzit\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E42994C-2B16-4F83-BB3D-5BDD4FCA176E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="12" windowWidth="18780" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$40</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -161,7 +169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -169,7 +177,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -958,33 +966,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1081,6 +1089,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1116,6 +1141,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1291,56 +1333,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="101" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="106" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
       <c r="F2" s="22"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1348,7 +1390,7 @@
       <c r="L2" s="23"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1360,7 +1402,7 @@
       <c r="K3" s="23"/>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
+    <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="60">
         <v>1</v>
       </c>
@@ -1423,7 +1465,7 @@
       <c r="K5" s="38"/>
       <c r="L5" s="63"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="64">
         <f>A5+1</f>
         <v>2</v>
@@ -1449,7 +1491,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="68"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="64">
         <f t="shared" ref="A7:A15" si="1">A6+1</f>
         <v>3</v>
@@ -1475,7 +1517,7 @@
       <c r="K7" s="39"/>
       <c r="L7" s="68"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="64">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1501,7 +1543,7 @@
       <c r="K8" s="39"/>
       <c r="L8" s="68"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="64">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1527,7 +1569,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="68"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="64">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1553,7 +1595,7 @@
       <c r="K10" s="39"/>
       <c r="L10" s="68"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="64">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1582,7 +1624,7 @@
       <c r="L11" s="68"/>
       <c r="M11" s="20"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="64">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1609,7 +1651,7 @@
       <c r="L12" s="68"/>
       <c r="M12" s="20"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="64">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1637,7 +1679,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="68"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="64">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1665,7 +1707,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="68"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="64">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1693,7 +1735,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="68"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
       <c r="B16" s="47"/>
       <c r="C16" s="1"/>
@@ -1705,7 +1747,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="16.2" thickBot="1">
+    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="49" t="s">
         <v>10</v>
@@ -1721,7 +1763,7 @@
       <c r="K17" s="50"/>
       <c r="L17" s="50"/>
     </row>
-    <row r="18" spans="1:12" ht="66.599999999999994" thickBot="1">
+    <row r="18" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>22</v>
       </c>
@@ -1755,7 +1797,7 @@
       <c r="K18" s="51"/>
       <c r="L18" s="51"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="55">
         <f>E5*700000</f>
         <v>16800000</v>
@@ -1768,7 +1810,7 @@
         <v>2180000</v>
       </c>
       <c r="G19" s="71">
-        <f t="shared" ref="G19:G28" si="2">F19/A$19</f>
+        <f t="shared" ref="G19:G29" si="2">F19/A$19</f>
         <v>0.12976190476190477</v>
       </c>
       <c r="H19" s="89">
@@ -1783,7 +1825,7 @@
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
     </row>
-    <row r="20" spans="1:12" ht="12.75" customHeight="1">
+    <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="64"/>
       <c r="B20" s="72">
         <v>43514</v>
@@ -1818,7 +1860,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1">
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="74">
         <v>43579</v>
@@ -1851,7 +1893,7 @@
       <c r="K21" s="44"/>
       <c r="L21" s="44"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="74">
         <v>43586</v>
@@ -1884,7 +1926,7 @@
       <c r="K22" s="52"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="74">
         <v>43627</v>
@@ -1919,7 +1961,7 @@
       <c r="K23" s="53"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="74">
         <v>43660</v>
@@ -1950,7 +1992,7 @@
       <c r="K24" s="52"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="74">
         <v>43720</v>
@@ -1983,7 +2025,7 @@
       <c r="K25" s="52"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="74">
         <v>43756</v>
@@ -2018,7 +2060,7 @@
       <c r="K26" s="52"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="74">
         <v>43873</v>
@@ -2053,7 +2095,7 @@
       <c r="K27" s="52"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="74">
         <v>43906</v>
@@ -2088,21 +2130,42 @@
       <c r="K28" s="52"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="97"/>
+      <c r="B29" s="77">
+        <v>43924</v>
+      </c>
+      <c r="C29" s="77">
+        <v>43930</v>
+      </c>
+      <c r="D29" s="77">
+        <v>43938</v>
+      </c>
+      <c r="E29" s="88">
+        <v>1021938</v>
+      </c>
+      <c r="F29" s="82">
+        <v>1070887</v>
+      </c>
+      <c r="G29" s="78">
+        <f t="shared" si="2"/>
+        <v>6.3743273809523812E-2</v>
+      </c>
+      <c r="H29" s="90">
+        <f t="shared" ref="H29" si="12">H28-F29</f>
+        <v>4533277</v>
+      </c>
+      <c r="I29" s="57">
+        <f t="shared" ref="I29" si="13">I28-G29</f>
+        <v>0.26983791666666662</v>
+      </c>
+      <c r="J29" s="97">
+        <v>436</v>
+      </c>
       <c r="K29" s="52"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="77"/>
       <c r="C30" s="77"/>
@@ -2110,13 +2173,13 @@
       <c r="E30" s="88"/>
       <c r="F30" s="82"/>
       <c r="G30" s="78"/>
-      <c r="H30" s="112"/>
+      <c r="H30" s="101"/>
       <c r="I30" s="83"/>
       <c r="J30" s="97"/>
       <c r="K30" s="52"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="77"/>
       <c r="C31" s="77"/>
@@ -2124,13 +2187,13 @@
       <c r="E31" s="88"/>
       <c r="F31" s="82"/>
       <c r="G31" s="78"/>
-      <c r="H31" s="112"/>
+      <c r="H31" s="101"/>
       <c r="I31" s="83"/>
       <c r="J31" s="97"/>
       <c r="K31" s="52"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="77"/>
       <c r="C32" s="77"/>
@@ -2138,13 +2201,13 @@
       <c r="E32" s="88"/>
       <c r="F32" s="82"/>
       <c r="G32" s="78"/>
-      <c r="H32" s="112"/>
+      <c r="H32" s="101"/>
       <c r="I32" s="83"/>
       <c r="J32" s="97"/>
       <c r="K32" s="52"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" ht="13.8" thickBot="1">
+    <row r="33" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="77"/>
       <c r="C33" s="77"/>
@@ -2158,7 +2221,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="13.8" thickBot="1">
+    <row r="34" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>27</v>
       </c>
@@ -2167,29 +2230,29 @@
       <c r="D34" s="16"/>
       <c r="E34" s="93">
         <f>SUM(E19:E33)</f>
-        <v>8535348</v>
+        <v>9557286</v>
       </c>
       <c r="F34" s="94">
         <f>SUM(F19:F33)</f>
-        <v>11195836</v>
+        <v>12266723</v>
       </c>
       <c r="G34" s="19">
         <f>SUM(G19:G33)</f>
-        <v>0.66641880952380939</v>
+        <v>0.73016208333333321</v>
       </c>
       <c r="H34" s="17">
         <f>A19-F34</f>
-        <v>5604164</v>
+        <v>4533277</v>
       </c>
       <c r="I34" s="21">
         <f>1-G34</f>
-        <v>0.33358119047619061</v>
+        <v>0.26983791666666679</v>
       </c>
       <c r="J34" s="98"/>
       <c r="K34" s="54"/>
       <c r="L34" s="54"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2201,13 +2264,13 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A38" s="102" t="s">
+    <row r="38" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="102"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="102"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="109"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -2215,11 +2278,11 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="111" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="111"/>
+      <c r="B39" s="106"/>
       <c r="C39" s="9" t="s">
         <v>17</v>
       </c>
@@ -2233,19 +2296,19 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="109">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="104">
         <f>A19-F34</f>
-        <v>5604164</v>
-      </c>
-      <c r="B40" s="110"/>
+        <v>4533277</v>
+      </c>
+      <c r="B40" s="105"/>
       <c r="C40" s="56">
         <f>1-G34</f>
-        <v>0.33358119047619061</v>
+        <v>0.26983791666666679</v>
       </c>
       <c r="D40" s="18">
         <f>(C40/0.8)*100</f>
-        <v>41.697648809523827</v>
+        <v>33.729739583333348</v>
       </c>
       <c r="E40" s="92" t="s">
         <v>42</v>
@@ -2256,7 +2319,7 @@
       <c r="I40" s="92"/>
       <c r="J40" s="92"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2264,7 +2327,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2279,7 +2342,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.6">
+    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2291,7 +2354,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="40"/>
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
@@ -2300,10 +2363,10 @@
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
       <c r="H44" s="40"/>
-      <c r="I44" s="107"/>
-      <c r="J44" s="108"/>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="I44" s="102"/>
+      <c r="J44" s="103"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="41"/>
       <c r="B45" s="42"/>
       <c r="C45" s="42"/>
@@ -2313,7 +2376,7 @@
       <c r="G45" s="43"/>
       <c r="H45" s="42"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="41"/>
       <c r="B46" s="42"/>
       <c r="C46" s="42"/>
@@ -2323,7 +2386,7 @@
       <c r="G46" s="43"/>
       <c r="H46" s="42"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="41"/>
       <c r="B47" s="42"/>
       <c r="C47" s="42"/>
@@ -2333,7 +2396,7 @@
       <c r="G47" s="43"/>
       <c r="H47" s="42"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="41"/>
       <c r="B48" s="42"/>
       <c r="C48" s="42"/>
@@ -2343,7 +2406,7 @@
       <c r="G48" s="43"/>
       <c r="H48" s="42"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="41"/>
       <c r="B49" s="42"/>
       <c r="C49" s="42"/>
@@ -2353,7 +2416,7 @@
       <c r="G49" s="43"/>
       <c r="H49" s="42"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="41"/>
       <c r="B50" s="42"/>
       <c r="C50" s="44"/>
@@ -2363,7 +2426,7 @@
       <c r="G50" s="44"/>
       <c r="H50" s="44"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="41"/>
       <c r="B51" s="42"/>
       <c r="C51" s="42"/>
@@ -2373,7 +2436,7 @@
       <c r="G51" s="43"/>
       <c r="H51" s="42"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="41"/>
       <c r="B52" s="42"/>
       <c r="C52" s="42"/>
@@ -2383,7 +2446,7 @@
       <c r="G52" s="43"/>
       <c r="H52" s="42"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="41"/>
       <c r="B53" s="42"/>
       <c r="C53" s="42"/>
@@ -2393,11 +2456,11 @@
       <c r="G53" s="43"/>
       <c r="H53" s="42"/>
     </row>
-    <row r="54" spans="1:10" ht="15.6">
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="104"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="105"/>
+      <c r="B54" s="110"/>
+      <c r="C54" s="110"/>
+      <c r="D54" s="111"/>
       <c r="E54" s="46"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -2405,7 +2468,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="40"/>
       <c r="B55" s="40"/>
       <c r="C55" s="40"/>
@@ -2414,10 +2477,10 @@
       <c r="F55" s="40"/>
       <c r="G55" s="40"/>
       <c r="H55" s="40"/>
-      <c r="I55" s="107"/>
-      <c r="J55" s="108"/>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="I55" s="102"/>
+      <c r="J55" s="103"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="41"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2426,10 +2489,10 @@
       <c r="F56" s="43"/>
       <c r="G56" s="43"/>
       <c r="H56" s="42"/>
-      <c r="I56" s="103"/>
-      <c r="J56" s="103"/>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="I56" s="107"/>
+      <c r="J56" s="107"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="41"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2438,10 +2501,10 @@
       <c r="F57" s="44"/>
       <c r="G57" s="44"/>
       <c r="H57" s="44"/>
-      <c r="I57" s="103"/>
-      <c r="J57" s="103"/>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="I57" s="107"/>
+      <c r="J57" s="107"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2451,19 +2514,24 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="63" spans="1:10">
-      <c r="B63" s="107"/>
-      <c r="C63" s="108"/>
-    </row>
-    <row r="70" spans="2:3">
-      <c r="B70" s="107"/>
-      <c r="C70" s="108"/>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B63" s="102"/>
+      <c r="C63" s="103"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70" s="102"/>
+      <c r="C70" s="103"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A39:B39"/>
@@ -2471,11 +2539,6 @@
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2489,12 +2552,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2503,24 +2566,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1б-700 (Кристалл фирм.2  0,7 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2.1б-700 (Кристалл фирм.2  0,7 л.).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Александр Гавриленко\Работа\vedatranzit\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E42994C-2B16-4F83-BB3D-5BDD4FCA176E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998F180B-1B13-4B0F-B199-CD92F8DDEC11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$42</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>№Поз</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>Вес, гр. (ном. 435 гр.)</t>
+  </si>
+  <si>
+    <t>стоит</t>
   </si>
 </sst>
 </file>
@@ -321,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -545,21 +548,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -700,7 +688,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -773,16 +761,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -791,7 +779,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -830,13 +818,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -845,16 +833,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -872,13 +860,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -902,22 +890,16 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -932,13 +914,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -948,7 +927,7 @@
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -960,13 +939,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1337,10 +1313,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1360,29 +1336,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="22"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1454,7 +1430,7 @@
       <c r="E5" s="33">
         <v>24</v>
       </c>
-      <c r="F5" s="99"/>
+      <c r="F5" s="96"/>
       <c r="G5" s="33">
         <f>E5-F5</f>
         <v>24</v>
@@ -1480,7 +1456,7 @@
       <c r="E6" s="8">
         <v>24</v>
       </c>
-      <c r="F6" s="100"/>
+      <c r="F6" s="97"/>
       <c r="G6" s="8">
         <f t="shared" ref="G6:G15" si="0">E6-F6</f>
         <v>24</v>
@@ -1506,7 +1482,7 @@
       <c r="E7" s="8">
         <v>32</v>
       </c>
-      <c r="F7" s="100"/>
+      <c r="F7" s="97"/>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1532,7 +1508,7 @@
       <c r="E8" s="8">
         <v>32</v>
       </c>
-      <c r="F8" s="100"/>
+      <c r="F8" s="97"/>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1558,7 +1534,7 @@
       <c r="E9" s="8">
         <v>20</v>
       </c>
-      <c r="F9" s="100"/>
+      <c r="F9" s="97"/>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1584,7 +1560,7 @@
       <c r="E10" s="8">
         <v>24</v>
       </c>
-      <c r="F10" s="100"/>
+      <c r="F10" s="97"/>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1610,7 +1586,7 @@
       <c r="E11" s="8">
         <v>57</v>
       </c>
-      <c r="F11" s="100">
+      <c r="F11" s="97">
         <v>23</v>
       </c>
       <c r="G11" s="8">
@@ -1639,7 +1615,7 @@
       <c r="E12" s="8">
         <v>21</v>
       </c>
-      <c r="F12" s="100"/>
+      <c r="F12" s="97"/>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1666,7 +1642,7 @@
       <c r="E13" s="8">
         <v>8</v>
       </c>
-      <c r="F13" s="100"/>
+      <c r="F13" s="97"/>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1694,7 +1670,7 @@
       <c r="E14" s="8">
         <v>50</v>
       </c>
-      <c r="F14" s="100">
+      <c r="F14" s="97">
         <v>11</v>
       </c>
       <c r="G14" s="8">
@@ -1722,7 +1698,7 @@
       <c r="E15" s="10">
         <v>60</v>
       </c>
-      <c r="F15" s="100">
+      <c r="F15" s="97">
         <v>2</v>
       </c>
       <c r="G15" s="8">
@@ -1805,15 +1781,15 @@
       <c r="B19" s="69"/>
       <c r="C19" s="70"/>
       <c r="D19" s="69"/>
-      <c r="E19" s="84"/>
+      <c r="E19" s="82"/>
       <c r="F19" s="79">
         <v>2180000</v>
       </c>
       <c r="G19" s="71">
-        <f t="shared" ref="G19:G29" si="2">F19/A$19</f>
+        <f t="shared" ref="G19:G35" si="2">F19/A$19</f>
         <v>0.12976190476190477</v>
       </c>
-      <c r="H19" s="89">
+      <c r="H19" s="87">
         <f>A19-F19</f>
         <v>14620000</v>
       </c>
@@ -1821,7 +1797,7 @@
         <f>1-G19</f>
         <v>0.87023809523809526</v>
       </c>
-      <c r="J19" s="95"/>
+      <c r="J19" s="92"/>
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
     </row>
@@ -1836,7 +1812,7 @@
       <c r="D20" s="72">
         <v>43520</v>
       </c>
-      <c r="E20" s="85">
+      <c r="E20" s="83">
         <v>476718</v>
       </c>
       <c r="F20" s="80">
@@ -1846,7 +1822,7 @@
         <f t="shared" si="2"/>
         <v>3.0805238095238094E-2</v>
       </c>
-      <c r="H20" s="90">
+      <c r="H20" s="88">
         <f t="shared" ref="H20:I24" si="3">H19-F20</f>
         <v>14102472</v>
       </c>
@@ -1854,7 +1830,7 @@
         <f t="shared" si="3"/>
         <v>0.8394328571428572</v>
       </c>
-      <c r="J20" s="95">
+      <c r="J20" s="92">
         <v>435</v>
       </c>
       <c r="K20" s="1"/>
@@ -1871,7 +1847,7 @@
       <c r="D21" s="74">
         <v>43586</v>
       </c>
-      <c r="E21" s="86">
+      <c r="E21" s="84">
         <v>935262</v>
       </c>
       <c r="F21" s="73">
@@ -1881,7 +1857,7 @@
         <f t="shared" si="2"/>
         <v>5.9745476190476189E-2</v>
       </c>
-      <c r="H21" s="90">
+      <c r="H21" s="88">
         <f t="shared" si="3"/>
         <v>13098748</v>
       </c>
@@ -1889,7 +1865,7 @@
         <f t="shared" si="3"/>
         <v>0.77968738095238099</v>
       </c>
-      <c r="J21" s="95"/>
+      <c r="J21" s="92"/>
       <c r="K21" s="44"/>
       <c r="L21" s="44"/>
     </row>
@@ -1904,7 +1880,7 @@
       <c r="D22" s="74">
         <v>43595</v>
       </c>
-      <c r="E22" s="87">
+      <c r="E22" s="85">
         <v>279600</v>
       </c>
       <c r="F22" s="66">
@@ -1914,7 +1890,7 @@
         <f t="shared" si="2"/>
         <v>1.7886726190476189E-2</v>
       </c>
-      <c r="H22" s="90">
+      <c r="H22" s="88">
         <f t="shared" si="3"/>
         <v>12798251</v>
       </c>
@@ -1922,7 +1898,7 @@
         <f t="shared" si="3"/>
         <v>0.76180065476190484</v>
       </c>
-      <c r="J22" s="95"/>
+      <c r="J22" s="92"/>
       <c r="K22" s="52"/>
       <c r="L22" s="1"/>
     </row>
@@ -1937,7 +1913,7 @@
       <c r="D23" s="74">
         <v>43636</v>
       </c>
-      <c r="E23" s="86">
+      <c r="E23" s="84">
         <v>759114</v>
       </c>
       <c r="F23" s="73">
@@ -1947,7 +1923,7 @@
         <f t="shared" si="2"/>
         <v>4.8336666666666667E-2</v>
       </c>
-      <c r="H23" s="90">
+      <c r="H23" s="88">
         <f t="shared" si="3"/>
         <v>11986195</v>
       </c>
@@ -1955,7 +1931,7 @@
         <f t="shared" si="3"/>
         <v>0.71346398809523814</v>
       </c>
-      <c r="J23" s="95">
+      <c r="J23" s="92">
         <v>437</v>
       </c>
       <c r="K23" s="53"/>
@@ -1970,7 +1946,7 @@
         <v>43670</v>
       </c>
       <c r="D24" s="74"/>
-      <c r="E24" s="86">
+      <c r="E24" s="84">
         <v>1430154</v>
       </c>
       <c r="F24" s="73">
@@ -1980,7 +1956,7 @@
         <f t="shared" si="2"/>
         <v>9.0642440476190481E-2</v>
       </c>
-      <c r="H24" s="90">
+      <c r="H24" s="88">
         <f t="shared" si="3"/>
         <v>10463402</v>
       </c>
@@ -1988,7 +1964,7 @@
         <f t="shared" si="3"/>
         <v>0.62282154761904762</v>
       </c>
-      <c r="J24" s="95"/>
+      <c r="J24" s="92"/>
       <c r="K24" s="52"/>
       <c r="L24" s="1"/>
     </row>
@@ -2003,7 +1979,7 @@
       <c r="D25" s="74">
         <v>43727</v>
       </c>
-      <c r="E25" s="86">
+      <c r="E25" s="84">
         <v>777288</v>
       </c>
       <c r="F25" s="73">
@@ -2013,7 +1989,7 @@
         <f t="shared" si="2"/>
         <v>4.9157142857142858E-2</v>
       </c>
-      <c r="H25" s="90">
+      <c r="H25" s="88">
         <f t="shared" ref="H25" si="4">H24-F25</f>
         <v>9637562</v>
       </c>
@@ -2021,7 +1997,7 @@
         <f t="shared" ref="I25" si="5">I24-G25</f>
         <v>0.57366440476190472</v>
       </c>
-      <c r="J25" s="95"/>
+      <c r="J25" s="92"/>
       <c r="K25" s="52"/>
       <c r="L25" s="1"/>
     </row>
@@ -2036,7 +2012,7 @@
       <c r="D26" s="74">
         <v>43769</v>
       </c>
-      <c r="E26" s="86">
+      <c r="E26" s="84">
         <v>1662780</v>
       </c>
       <c r="F26" s="73">
@@ -2046,7 +2022,7 @@
         <f t="shared" si="2"/>
         <v>0.10267630952380952</v>
       </c>
-      <c r="H26" s="90">
+      <c r="H26" s="88">
         <f t="shared" ref="H26" si="6">H25-F26</f>
         <v>7912600</v>
       </c>
@@ -2054,7 +2030,7 @@
         <f t="shared" ref="I26" si="7">I25-G26</f>
         <v>0.47098809523809521</v>
       </c>
-      <c r="J26" s="95">
+      <c r="J26" s="92">
         <v>438</v>
       </c>
       <c r="K26" s="52"/>
@@ -2071,7 +2047,7 @@
       <c r="D27" s="74">
         <v>43881</v>
       </c>
-      <c r="E27" s="87">
+      <c r="E27" s="85">
         <v>1027530</v>
       </c>
       <c r="F27" s="73">
@@ -2081,7 +2057,7 @@
         <f t="shared" si="2"/>
         <v>6.3930059523809521E-2</v>
       </c>
-      <c r="H27" s="90">
+      <c r="H27" s="88">
         <f t="shared" ref="H27" si="8">H26-F27</f>
         <v>6838575</v>
       </c>
@@ -2089,7 +2065,7 @@
         <f t="shared" ref="I27" si="9">I26-G27</f>
         <v>0.40705803571428567</v>
       </c>
-      <c r="J27" s="96">
+      <c r="J27" s="93">
         <v>437</v>
       </c>
       <c r="K27" s="52"/>
@@ -2106,7 +2082,7 @@
       <c r="D28" s="74">
         <v>43920</v>
       </c>
-      <c r="E28" s="87">
+      <c r="E28" s="85">
         <v>1186902</v>
       </c>
       <c r="F28" s="73">
@@ -2116,7 +2092,7 @@
         <f t="shared" si="2"/>
         <v>7.3476845238095237E-2</v>
       </c>
-      <c r="H28" s="90">
+      <c r="H28" s="88">
         <f t="shared" ref="H28" si="10">H27-F28</f>
         <v>5604164</v>
       </c>
@@ -2124,7 +2100,7 @@
         <f t="shared" ref="I28" si="11">I27-G28</f>
         <v>0.33358119047619045</v>
       </c>
-      <c r="J28" s="96">
+      <c r="J28" s="93">
         <v>437</v>
       </c>
       <c r="K28" s="52"/>
@@ -2141,17 +2117,17 @@
       <c r="D29" s="77">
         <v>43938</v>
       </c>
-      <c r="E29" s="88">
+      <c r="E29" s="86">
         <v>1021938</v>
       </c>
-      <c r="F29" s="82">
+      <c r="F29" s="81">
         <v>1070887</v>
       </c>
       <c r="G29" s="78">
         <f t="shared" si="2"/>
         <v>6.3743273809523812E-2</v>
       </c>
-      <c r="H29" s="90">
+      <c r="H29" s="88">
         <f t="shared" ref="H29" si="12">H28-F29</f>
         <v>4533277</v>
       </c>
@@ -2159,7 +2135,7 @@
         <f t="shared" ref="I29" si="13">I28-G29</f>
         <v>0.26983791666666662</v>
       </c>
-      <c r="J29" s="97">
+      <c r="J29" s="94">
         <v>436</v>
       </c>
       <c r="K29" s="52"/>
@@ -2167,128 +2143,250 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="97"/>
+      <c r="B30" s="77">
+        <v>44026</v>
+      </c>
+      <c r="C30" s="77">
+        <v>44032</v>
+      </c>
+      <c r="D30" s="77">
+        <v>44041</v>
+      </c>
+      <c r="E30" s="86">
+        <v>1033122</v>
+      </c>
+      <c r="F30" s="81">
+        <v>1079813</v>
+      </c>
+      <c r="G30" s="78">
+        <f t="shared" si="2"/>
+        <v>6.4274583333333329E-2</v>
+      </c>
+      <c r="H30" s="88">
+        <f t="shared" ref="H30" si="14">H29-F30</f>
+        <v>3453464</v>
+      </c>
+      <c r="I30" s="57">
+        <f t="shared" ref="I30" si="15">I29-G30</f>
+        <v>0.20556333333333329</v>
+      </c>
+      <c r="J30" s="94">
+        <v>436</v>
+      </c>
       <c r="K30" s="52"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="97"/>
+      <c r="B31" s="77">
+        <v>44062</v>
+      </c>
+      <c r="C31" s="77">
+        <v>44067</v>
+      </c>
+      <c r="D31" s="77">
+        <v>44070</v>
+      </c>
+      <c r="E31" s="86">
+        <v>879342</v>
+      </c>
+      <c r="F31" s="81">
+        <v>921175</v>
+      </c>
+      <c r="G31" s="78">
+        <f t="shared" si="2"/>
+        <v>5.4831845238095235E-2</v>
+      </c>
+      <c r="H31" s="88">
+        <f t="shared" ref="H31" si="16">H30-F31</f>
+        <v>2532289</v>
+      </c>
+      <c r="I31" s="57">
+        <f t="shared" ref="I31" si="17">I30-G31</f>
+        <v>0.15073148809523806</v>
+      </c>
+      <c r="J31" s="94">
+        <v>436</v>
+      </c>
       <c r="K31" s="52"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="97"/>
+      <c r="B32" s="77">
+        <v>44095</v>
+      </c>
+      <c r="C32" s="77">
+        <v>44101</v>
+      </c>
+      <c r="D32" s="77">
+        <v>44105</v>
+      </c>
+      <c r="E32" s="86">
+        <v>1063878</v>
+      </c>
+      <c r="F32" s="81">
+        <v>1109848</v>
+      </c>
+      <c r="G32" s="78">
+        <f t="shared" si="2"/>
+        <v>6.6062380952380956E-2</v>
+      </c>
+      <c r="H32" s="88">
+        <f t="shared" ref="H32" si="18">H31-F32</f>
+        <v>1422441</v>
+      </c>
+      <c r="I32" s="57">
+        <f t="shared" ref="I32" si="19">I31-G32</f>
+        <v>8.4669107142857108E-2</v>
+      </c>
+      <c r="J32" s="94">
+        <v>439</v>
+      </c>
       <c r="K32" s="52"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="1"/>
+      <c r="B33" s="77">
+        <v>44118</v>
+      </c>
+      <c r="C33" s="77">
+        <v>44123</v>
+      </c>
+      <c r="D33" s="77">
+        <v>44137</v>
+      </c>
+      <c r="E33" s="86">
+        <v>893322</v>
+      </c>
+      <c r="F33" s="81">
+        <v>945746</v>
+      </c>
+      <c r="G33" s="78">
+        <f t="shared" si="2"/>
+        <v>5.6294404761904761E-2</v>
+      </c>
+      <c r="H33" s="88">
+        <f t="shared" ref="H33" si="20">H32-F33</f>
+        <v>476695</v>
+      </c>
+      <c r="I33" s="57">
+        <f t="shared" ref="I33" si="21">I32-G33</f>
+        <v>2.8374702380952348E-2</v>
+      </c>
+      <c r="J33" s="94">
+        <v>443</v>
+      </c>
+      <c r="K33" s="52"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="77">
+        <v>44195</v>
+      </c>
+      <c r="C34" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="77">
+        <v>44200</v>
+      </c>
+      <c r="E34" s="86">
+        <v>283794</v>
+      </c>
+      <c r="F34" s="81">
+        <v>313932</v>
+      </c>
+      <c r="G34" s="78">
+        <f t="shared" si="2"/>
+        <v>1.8686428571428573E-2</v>
+      </c>
+      <c r="H34" s="88">
+        <f t="shared" ref="H34" si="22">H33-F34</f>
+        <v>162763</v>
+      </c>
+      <c r="I34" s="57">
+        <f t="shared" ref="I34" si="23">I33-G34</f>
+        <v>9.6882738095237751E-3</v>
+      </c>
+      <c r="J34" s="94">
+        <v>442</v>
+      </c>
+      <c r="K34" s="52"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="77">
+        <v>44200</v>
+      </c>
+      <c r="D35" s="77">
+        <v>44228</v>
+      </c>
+      <c r="E35" s="86">
+        <v>609528</v>
+      </c>
+      <c r="F35" s="81">
+        <v>631008</v>
+      </c>
+      <c r="G35" s="78">
+        <f t="shared" si="2"/>
+        <v>3.7560000000000003E-2</v>
+      </c>
+      <c r="H35" s="88">
+        <f t="shared" ref="H35" si="24">H34-F35</f>
+        <v>-468245</v>
+      </c>
+      <c r="I35" s="57">
+        <f t="shared" ref="I35" si="25">I34-G35</f>
+        <v>-2.7871726190476228E-2</v>
+      </c>
+      <c r="J35" s="94">
+        <v>442</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="93">
-        <f>SUM(E19:E33)</f>
-        <v>9557286</v>
-      </c>
-      <c r="F34" s="94">
-        <f>SUM(F19:F33)</f>
-        <v>12266723</v>
-      </c>
-      <c r="G34" s="19">
-        <f>SUM(G19:G33)</f>
-        <v>0.73016208333333321</v>
-      </c>
-      <c r="H34" s="17">
-        <f>A19-F34</f>
-        <v>4533277</v>
-      </c>
-      <c r="I34" s="21">
-        <f>1-G34</f>
-        <v>0.26983791666666679</v>
-      </c>
-      <c r="J34" s="98"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="109" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="109"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="90">
+        <f>SUM(E19:E35)</f>
+        <v>14320272</v>
+      </c>
+      <c r="F36" s="91">
+        <f>SUM(F19:F35)</f>
+        <v>17268245</v>
+      </c>
+      <c r="G36" s="19">
+        <f>SUM(G19:G35)</f>
+        <v>1.027871726190476</v>
+      </c>
+      <c r="H36" s="17">
+        <f>A19-F36</f>
+        <v>-468245</v>
+      </c>
+      <c r="I36" s="21">
+        <f>1-G36</f>
+        <v>-2.7871726190475954E-2</v>
+      </c>
+      <c r="J36" s="95"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="106" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="106"/>
-      <c r="C39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -2296,95 +2394,107 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="104">
-        <f>A19-F34</f>
-        <v>4533277</v>
+    <row r="40" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="105" t="s">
+        <v>15</v>
       </c>
       <c r="B40" s="105"/>
-      <c r="C40" s="56">
-        <f>1-G34</f>
-        <v>0.26983791666666679</v>
-      </c>
-      <c r="D40" s="18">
-        <f>(C40/0.8)*100</f>
-        <v>33.729739583333348</v>
-      </c>
-      <c r="E40" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="A41" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="102"/>
+      <c r="C41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="100">
+        <f>A19-F36</f>
+        <v>-468245</v>
+      </c>
+      <c r="B42" s="101"/>
+      <c r="C42" s="56">
+        <f>1-G36</f>
+        <v>-2.7871726190475954E-2</v>
+      </c>
+      <c r="D42" s="18">
+        <f>(C42/0.8)*100</f>
+        <v>-3.4839657738094942</v>
+      </c>
+      <c r="E42" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="89"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="89"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="102"/>
-      <c r="J44" s="103"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="41"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="42"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="41"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="42"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="98"/>
+      <c r="J46" s="99"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="41"/>
@@ -2419,19 +2529,19 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="41"/>
       <c r="B50" s="42"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="42"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="41"/>
       <c r="B51" s="42"/>
       <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
       <c r="F51" s="42"/>
       <c r="G51" s="43"/>
       <c r="H51" s="42"/>
@@ -2439,88 +2549,108 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="41"/>
       <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="42"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="41"/>
       <c r="B53" s="42"/>
       <c r="C53" s="42"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
       <c r="F53" s="42"/>
       <c r="G53" s="43"/>
       <c r="H53" s="42"/>
     </row>
-    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="110"/>
-      <c r="C54" s="110"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="41"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="42"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="102"/>
-      <c r="J55" s="103"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="41"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="107"/>
-      <c r="J56" s="107"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="42"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="106"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="41"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="107"/>
-      <c r="J57" s="107"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="98"/>
+      <c r="J57" s="99"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="102"/>
-      <c r="C63" s="103"/>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B70" s="102"/>
-      <c r="C70" s="103"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="103"/>
+      <c r="J58" s="103"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="41"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="103"/>
+      <c r="J59" s="103"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="98"/>
+      <c r="C65" s="99"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B72" s="98"/>
+      <c r="C72" s="99"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
@@ -2528,25 +2658,25 @@
   </sortState>
   <mergeCells count="12">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="I46:J46"/>
     <mergeCell ref="I57:J57"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I58:J58"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="93" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="40" max="12" man="1"/>
+    <brk id="42" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
